--- a/yield_prediction/results/out_of_sample_results.xlsx
+++ b/yield_prediction/results/out_of_sample_results.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,12 +523,12 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>graph_descriptors</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>SVR - WL Kernel</t>
+          <t>SVR - Tanimoto Kernel</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.639</v>
+        <v>0.626</v>
       </c>
       <c r="F2" t="n">
-        <v>17.907</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="3">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.094</v>
+        <v>0.146</v>
       </c>
       <c r="F3" t="n">
-        <v>22.954</v>
+        <v>22.281</v>
       </c>
     </row>
     <row r="4">
@@ -569,38 +569,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.723</v>
+        <v>0.62</v>
       </c>
       <c r="F4" t="n">
-        <v>13.58</v>
+        <v>15.912</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>graph_descriptors</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>SVR - WL Kernel</t>
+          <t>SVR - Tanimoto Kernel</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>plate_1</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.402</v>
+        <v>0.666</v>
       </c>
       <c r="F5" t="n">
-        <v>21.131</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="6">
@@ -609,14 +605,14 @@
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>plate_2</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.148</v>
       </c>
       <c r="F6" t="n">
-        <v>15.577</v>
+        <v>22.259</v>
       </c>
     </row>
     <row r="7">
@@ -625,46 +621,740 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
+          <t>plate_3</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.549</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.449</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
           <t>ranking_test3</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>0.781</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12.529</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="E10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15.153</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>ranking_test4</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11.891</v>
+      <c r="E11" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.229</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21.211</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.755</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.048</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12.968</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A15"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Test Set</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R-squared</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>aryl</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>aryl_test_phenyl</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20.772</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>aryl_test_pyridyl</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27.679</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>aryl_test_phenyl</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>aryl_test_pyridyl</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>halide</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.386</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.428</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.972</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.191</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.751</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.592</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34.067</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14.693</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.707</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.646</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15.516</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.488</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Test Set</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R-squared</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>LOO</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.346</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.797</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18.545</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.172</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.644</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -713,29 +1403,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>aryl</t>
+          <t>LOO</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>graph_descriptors</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>SVR - WL Kernel</t>
+          <t>SVR - Tanimoto Kernel</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>aryl_test_phenyl</t>
+          <t>LOO_AdBrettPhos</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.229</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>25.442</v>
+        <v>18.661</v>
       </c>
     </row>
     <row r="3">
@@ -744,42 +1434,30 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>aryl_test_pyridyl</t>
+          <t>LOO_XPhos</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.149</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>27.387</v>
+        <v>24.408</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>halide</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>graph_descriptors</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>SVR - WL Kernel</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>LOO_t-BuBrettPhos</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.622</v>
+        <v>0.782</v>
       </c>
       <c r="F4" t="n">
-        <v>15.516</v>
+        <v>13.387</v>
       </c>
     </row>
     <row r="5">
@@ -788,58 +1466,54 @@
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>LOO_t-BuXPhos</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.759</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>35.148</v>
+        <v>15.719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>LOO_AdBrettPhos</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.074</v>
+        <v>0.655</v>
       </c>
       <c r="F6" t="n">
-        <v>26.217</v>
+        <v>16.673</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>graph_descriptors</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>SVR - WL Kernel</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>LOO_XPhos</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.59</v>
+        <v>-1.011</v>
       </c>
       <c r="F7" t="n">
-        <v>15.953</v>
+        <v>24.854</v>
       </c>
     </row>
     <row r="8">
@@ -848,14 +1522,14 @@
       <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>LOO_t-BuBrettPhos</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.696</v>
+        <v>0.826</v>
       </c>
       <c r="F8" t="n">
-        <v>14.685</v>
+        <v>11.974</v>
       </c>
     </row>
     <row r="9">
@@ -864,39 +1538,35 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>LOO_t-BuXPhos</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.539</v>
+        <v>0.765</v>
       </c>
       <c r="F9" t="n">
-        <v>17.986</v>
+        <v>13.65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,114 +1575,190 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>R-squared</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Descriptor</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Test Set</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R-squared</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>LOO</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>graph_descriptors</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>SVR - WL Kernel</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>LOO_BTMG</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12.005</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>LOO_MTBD</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23.03</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>LOO_P2Et</t>
-        </is>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>plate</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.464</v>
       </c>
       <c r="E4" t="n">
-        <v>0.411</v>
+        <v>0.275412418020684</v>
       </c>
       <c r="F4" t="n">
-        <v>19.054</v>
+        <v>18.80433333333333</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.224457215305132</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5173333333333333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3218716100145108</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.565</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.535787803678651</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5894999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1156157428726729</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17.345</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.631017040360375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6525000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1742077304063552</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.7455</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.867074389423266</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
+  <mergeCells count="4">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,124 +1767,239 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>R-squared</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Descriptor</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Test Set</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R-squared</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>LOO</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>graph_descriptors</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>SVR - WL Kernel</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.974</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.864</v>
-      </c>
-      <c r="F3" t="n">
-        <v>23.926</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>aryl</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1555</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.03464823227814082</v>
       </c>
       <c r="F4" t="n">
-        <v>9.093999999999999</v>
+        <v>24.2255</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.883986537655484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0645</v>
       </c>
       <c r="E5" t="n">
-        <v>0.743</v>
+        <v>0.1336431816442575</v>
       </c>
       <c r="F5" t="n">
-        <v>14.272</v>
+        <v>25.255</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.778929650063132</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>halide</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.2383333333333333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.065454050315326</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24.183</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.793002729443453</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.2606666666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.18040049700656</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24.039</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.679238813047233</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6590000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.01212435565298215</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.18666666666667</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5075256972147656</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6576666666666666</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00351188458428425</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15.21666666666667</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4944100861970079</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1214,345 +2075,62 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>plate</t>
+          <t>LOO</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>graph_descriptors</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>SVR - WL Kernel</t>
+          <t>SVR - Tanimoto Kernel</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4853333333333333</v>
+        <v>0.4003333333333334</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3414971937415201</v>
+        <v>0.3712577720847516</v>
       </c>
       <c r="F4" t="n">
-        <v>18.147</v>
+        <v>20.22933333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>4.691606228148309</v>
+        <v>8.846586027012529</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>graph_descriptors</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>SVR - WL Kernel</t>
+          <t>SVR - Tanimoto Kernel</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6695</v>
+        <v>0.5436666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1844785443712448</v>
+        <v>0.2184040597913265</v>
       </c>
       <c r="F5" t="n">
-        <v>15.282</v>
+        <v>17.67533333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>4.218045202855623</v>
+        <v>6.07717840229603</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>R-squared</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Std</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Std</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Descriptor</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>aryl</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>graph_descriptors</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>SVR - WL Kernel</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.04000000000000001</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.267286363288515</v>
-      </c>
-      <c r="F4" t="n">
-        <v>26.4145</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.375322689407835</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>halide</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>graph_descriptors</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>SVR - WL Kernel</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.4036666666666667</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.224255011561453</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25.627</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9.829289445326149</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>graph_descriptors</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>SVR - WL Kernel</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6083333333333333</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08008953323208549</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16.208</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.665208395366778</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>R-squared</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Std</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Std</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Descriptor</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>LOO</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>graph_descriptors</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>SVR - WL Kernel</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5276666666666666</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2038070983389277</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18.02966666666667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.583421919695245</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1564,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,31 +2217,57 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>graph_descriptors</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>SVR - WL Kernel</t>
+          <t>SVR - Tanimoto Kernel</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.38425</v>
+        <v>0.2745</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8351679970720461</v>
+        <v>0.8143895464293075</v>
       </c>
       <c r="F4" t="n">
-        <v>15.3165</v>
+        <v>18.04375</v>
       </c>
       <c r="G4" t="n">
-        <v>6.211180322611797</v>
+        <v>4.760058079127467</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.30875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8826741093593565</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16.78775</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.718252085792184</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/out_of_sample_results.xlsx
+++ b/yield_prediction/results/out_of_sample_results.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.626</v>
+        <v>0.467</v>
       </c>
       <c r="F2" t="n">
-        <v>18.22</v>
+        <v>21.757</v>
       </c>
     </row>
     <row r="3">
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.146</v>
+        <v>0.118</v>
       </c>
       <c r="F3" t="n">
-        <v>22.281</v>
+        <v>22.649</v>
       </c>
     </row>
     <row r="4">
@@ -569,17 +569,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.62</v>
+        <v>0.584</v>
       </c>
       <c r="F4" t="n">
-        <v>15.912</v>
+        <v>16.653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.666</v>
+        <v>0.626</v>
       </c>
       <c r="F5" t="n">
-        <v>17.23</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="6">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.148</v>
+        <v>0.146</v>
       </c>
       <c r="F6" t="n">
-        <v>22.259</v>
+        <v>22.281</v>
       </c>
     </row>
     <row r="7">
@@ -625,21 +625,17 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.738</v>
+        <v>0.62</v>
       </c>
       <c r="F7" t="n">
-        <v>13.206</v>
+        <v>15.912</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -649,14 +645,14 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>plate_1</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.434</v>
+        <v>0.666</v>
       </c>
       <c r="F8" t="n">
-        <v>20.549</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="9">
@@ -665,14 +661,14 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>plate_2</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.569</v>
+        <v>0.148</v>
       </c>
       <c r="F9" t="n">
-        <v>18.449</v>
+        <v>22.259</v>
       </c>
     </row>
     <row r="10">
@@ -681,54 +677,54 @@
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>plate_3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.68</v>
+        <v>0.738</v>
       </c>
       <c r="F10" t="n">
-        <v>15.153</v>
+        <v>13.206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ranking_test4</t>
+          <t>plate_1</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.675</v>
+        <v>0.657</v>
       </c>
       <c r="F11" t="n">
-        <v>15.229</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>plate_2</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.397</v>
+        <v>0.133</v>
       </c>
       <c r="F12" t="n">
-        <v>21.211</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="13">
@@ -737,30 +733,38 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>plate_3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.728</v>
       </c>
       <c r="F13" t="n">
-        <v>15.755</v>
+        <v>13.458</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>plate_1</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.763</v>
+        <v>-585488198.979</v>
       </c>
       <c r="F14" t="n">
-        <v>13.048</v>
+        <v>721317.718</v>
       </c>
     </row>
     <row r="15">
@@ -769,28 +773,816 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
+          <t>plate_2</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-1162973466.853</v>
+      </c>
+      <c r="F15" t="n">
+        <v>822429.7659999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>plate_3</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>-2441347061.987</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1275743.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>plate_1</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>-1274362288.142</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1064177.28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>plate_2</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>-1914331198.307</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1055170.049</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>plate_3</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>-5024021611.276</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1830097.665</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>plate_1</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-2050585861.423</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1349915.258</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>plate_2</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>-2821896105.253</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1281104.117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>plate_3</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-5972408457.608</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1995369.219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>plate_1</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>-2939296075.975</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1616178.013</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>plate_2</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>-3737356086.767</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1474334.933</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>plate_3</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>-7585747337.98</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2248783.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="F26" t="n">
+        <v>21.182</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20.192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14.543</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
           <t>ranking_test4</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="E29" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.642</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20.549</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="F31" t="n">
+        <v>18.449</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15.153</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15.229</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="F34" t="n">
+        <v>21.211</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15.755</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13.048</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>0.764</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F37" t="n">
         <v>12.968</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="F38" t="n">
+        <v>21.009</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>15.781</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12.503</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11.887</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>-6850913319.431</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2260961.023</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>-1013929984.927</v>
+      </c>
+      <c r="F43" t="n">
+        <v>894629.607</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>-931687733.544</v>
+      </c>
+      <c r="F44" t="n">
+        <v>817374.3689999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>-1131547884.097</v>
+      </c>
+      <c r="F45" t="n">
+        <v>898473.429</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>-3256364943.523</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1558781.973</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>-1720042817.951</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1165222.635</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>-1579695069.37</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1064320.574</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>-2309081872.642</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1283478.019</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>-6441337529.705</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2192334.75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>-2561023699.095</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1421824.79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>-2165858716.442</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1246237.708</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>-3527224563.25</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1586300.001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>-9143772361.903</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2612050.337</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>-3346823959.717</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1625383.018</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>-2815158532.523</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1420814.087</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test4</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>-4340203720.459</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1759640.004</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A15"/>
+  <mergeCells count="34">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A57"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -802,7 +1594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,7 +1642,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -864,10 +1656,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.18</v>
+        <v>0.061</v>
       </c>
       <c r="F2" t="n">
-        <v>20.772</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="3">
@@ -880,17 +1672,17 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.131</v>
+        <v>0.064</v>
       </c>
       <c r="F3" t="n">
-        <v>27.679</v>
+        <v>28.719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -904,10 +1696,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.03</v>
+        <v>0.18</v>
       </c>
       <c r="F4" t="n">
-        <v>23.29</v>
+        <v>20.772</v>
       </c>
     </row>
     <row r="5">
@@ -920,21 +1712,17 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.159</v>
+        <v>0.131</v>
       </c>
       <c r="F5" t="n">
-        <v>27.22</v>
+        <v>27.679</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>halide</t>
-        </is>
-      </c>
+      <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -944,14 +1732,14 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>aryl_test_phenyl</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.628</v>
+        <v>-0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>15.386</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="7">
@@ -960,70 +1748,78 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>aryl_test_pyridyl</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.428</v>
+        <v>0.159</v>
       </c>
       <c r="F7" t="n">
-        <v>32.972</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>aryl_test_phenyl</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.08500000000000001</v>
+        <v>-0.122</v>
       </c>
       <c r="F8" t="n">
-        <v>24.191</v>
+        <v>24.303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>aryl_test_pyridyl</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.658</v>
+        <v>0.134</v>
       </c>
       <c r="F9" t="n">
-        <v>14.751</v>
+        <v>27.628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>aryl_test_phenyl</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-1.592</v>
+        <v>-8266084274.791</v>
       </c>
       <c r="F10" t="n">
-        <v>34.067</v>
+        <v>2086129.359</v>
       </c>
     </row>
     <row r="11">
@@ -1032,25 +1828,21 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>aryl_test_pyridyl</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.152</v>
+        <v>-1069524571.447</v>
       </c>
       <c r="F11" t="n">
-        <v>23.299</v>
+        <v>970796.0550000001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -1060,14 +1852,14 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>aryl_test_phenyl</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.652</v>
+        <v>-4098435695.785</v>
       </c>
       <c r="F12" t="n">
-        <v>14.693</v>
+        <v>1468927.575</v>
       </c>
     </row>
     <row r="13">
@@ -1076,70 +1868,78 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>aryl_test_pyridyl</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.652</v>
+        <v>-863401434.001</v>
       </c>
       <c r="F13" t="n">
-        <v>15.707</v>
+        <v>872246.032</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>aryl_test_phenyl</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.673</v>
+        <v>-3480528478.019</v>
       </c>
       <c r="F14" t="n">
-        <v>15.16</v>
+        <v>1353673.468</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>aryl_test_pyridyl</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.654</v>
+        <v>-484065824.935</v>
       </c>
       <c r="F15" t="n">
-        <v>14.646</v>
+        <v>653107.741</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>aryl_test_phenyl</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.661</v>
+        <v>-3982268528.805</v>
       </c>
       <c r="F16" t="n">
-        <v>15.516</v>
+        <v>1447960.09</v>
       </c>
     </row>
     <row r="17">
@@ -1148,33 +1948,973 @@
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
+          <t>aryl_test_pyridyl</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>-519051070.336</v>
+      </c>
+      <c r="F17" t="n">
+        <v>676297.318</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>halide</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17.589</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.321</v>
+      </c>
+      <c r="F19" t="n">
+        <v>32.232</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="F20" t="n">
+        <v>25.441</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.386</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.428</v>
+      </c>
+      <c r="F22" t="n">
+        <v>32.972</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>24.191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14.751</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.592</v>
+      </c>
+      <c r="F25" t="n">
+        <v>34.067</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23.299</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14.655</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.594</v>
+      </c>
+      <c r="F28" t="n">
+        <v>34.076</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="F29" t="n">
+        <v>23.621</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>-1350440543.867</v>
+      </c>
+      <c r="F30" t="n">
+        <v>927166.178</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>-3346439694.195</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1223985.525</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>-1672535749.243</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1034469.058</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>-1629565505.883</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1018487.629</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>-3460836760.32</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1244730.519</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>-1795244917.704</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1071745.463</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>-2123869459.244</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1162743.062</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>-5723489761.959</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1600719.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>-1926425267.837</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1110211.914</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Br</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>-2364324129.118</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1226798.832</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_Cl</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>-6479242624.522</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1703126.482</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>halide_test_I</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>-2118588260.379</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1164268.322</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15.349</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="F43" t="n">
+        <v>19.955</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
           <t>ranking_test3</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E44" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="F44" t="n">
+        <v>21.389</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="F45" t="n">
+        <v>14.693</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15.707</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15.16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="F48" t="n">
+        <v>14.646</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15.516</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
         <v>0.658</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F50" t="n">
         <v>15.488</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F51" t="n">
+        <v>15.162</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F52" t="n">
+        <v>14.427</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="F53" t="n">
+        <v>16.453</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>-4892818200.616</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1742761.319</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>-2887735226.785</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1431608.864</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>-2563297604.415</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1341443.88</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>-1824068284.429</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1064091.364</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>-3386993235.918</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1550432.48</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>-2598404734.782</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1350598.901</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>-3399830827.72</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1452737.095</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>-2457728065.41</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1320725.636</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>-2274079752.97</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1263501.722</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test1</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>-4001389670.519</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1576027.517</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>-3106157096.922</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1484763.907</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>ranking_test3</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>-2386855425.836</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1294452.294</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A17"/>
+  <mergeCells count="51">
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A41"/>
+    <mergeCell ref="A42:A65"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1186,7 +2926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,7 +2974,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -1248,10 +2988,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.749</v>
+        <v>0.696</v>
       </c>
       <c r="F2" t="n">
-        <v>12.346</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="3">
@@ -1264,10 +3004,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>-0.186</v>
       </c>
       <c r="F3" t="n">
-        <v>29.797</v>
+        <v>32.624</v>
       </c>
     </row>
     <row r="4">
@@ -1280,17 +3020,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.442</v>
+        <v>0.339</v>
       </c>
       <c r="F4" t="n">
-        <v>18.545</v>
+        <v>20.186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1304,10 +3044,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.795</v>
+        <v>0.749</v>
       </c>
       <c r="F5" t="n">
-        <v>11.172</v>
+        <v>12.346</v>
       </c>
     </row>
     <row r="6">
@@ -1320,10 +3060,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>0.01</v>
       </c>
       <c r="F6" t="n">
-        <v>23.21</v>
+        <v>29.797</v>
       </c>
     </row>
     <row r="7">
@@ -1336,19 +3076,367 @@
         </is>
       </c>
       <c r="E7" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.545</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>0.436</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F10" t="n">
         <v>18.644</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11.539</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.022</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18.746</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-3248288418.323</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1405581.958</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-1129039706.64</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1006483.557</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>-2130280317.758</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1145615.881</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>-1752363541.76</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1032383.338</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>-530939736.431</v>
+      </c>
+      <c r="F18" t="n">
+        <v>690199.581</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>-1412756549.584</v>
+      </c>
+      <c r="F19" t="n">
+        <v>932941.287</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-1431098821.626</v>
+      </c>
+      <c r="F20" t="n">
+        <v>932961.4399999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>-429257648.52</v>
+      </c>
+      <c r="F21" t="n">
+        <v>620599.0379999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-1414046986.518</v>
+      </c>
+      <c r="F22" t="n">
+        <v>933367.272</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>-1295763970.14</v>
+      </c>
+      <c r="F23" t="n">
+        <v>887752.353</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>-387172715.599</v>
+      </c>
+      <c r="F24" t="n">
+        <v>589392.2879999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>-1722372920.183</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1030111.516</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A7"/>
+  <mergeCells count="17">
+    <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1360,7 +3448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1408,7 +3496,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -1422,10 +3510,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="F2" t="n">
-        <v>18.661</v>
+        <v>21.156</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +3526,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.707</v>
       </c>
       <c r="F3" t="n">
-        <v>24.408</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="4">
@@ -1454,10 +3542,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.782</v>
+        <v>0.61</v>
       </c>
       <c r="F4" t="n">
-        <v>13.387</v>
+        <v>17.935</v>
       </c>
     </row>
     <row r="5">
@@ -1470,17 +3558,17 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.572</v>
       </c>
       <c r="F5" t="n">
-        <v>15.719</v>
+        <v>18.414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1494,10 +3582,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.655</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>16.673</v>
+        <v>18.661</v>
       </c>
     </row>
     <row r="7">
@@ -1510,10 +3598,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.011</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>24.854</v>
+        <v>24.408</v>
       </c>
     </row>
     <row r="8">
@@ -1526,10 +3614,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.826</v>
+        <v>0.782</v>
       </c>
       <c r="F8" t="n">
-        <v>11.974</v>
+        <v>13.387</v>
       </c>
     </row>
     <row r="9">
@@ -1542,19 +3630,463 @@
         </is>
       </c>
       <c r="E9" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15.719</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>LOO_AdBrettPhos</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.673</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>LOO_XPhos</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.011</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.854</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuBrettPhos</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11.974</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuXPhos</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>0.765</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F13" t="n">
         <v>13.65</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>LOO_AdBrettPhos</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="F14" t="n">
+        <v>15.521</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>LOO_XPhos</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.965</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.569</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuBrettPhos</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10.571</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuXPhos</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12.952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>LOO_AdBrettPhos</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>-1961674800.526</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1256818.326</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>LOO_XPhos</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>-4904555758.109</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1227397.051</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuBrettPhos</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-3517631661.471</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1702390.888</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuXPhos</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>-1496880017.23</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1088405.57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>LOO_AdBrettPhos</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-2535912993.991</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1428980.073</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>LOO_XPhos</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>-6448441944.782</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1407384.081</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuBrettPhos</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>-3633764496.568</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1730264.486</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuXPhos</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>-2007117065.922</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1260328.079</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>LOO_AdBrettPhos</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>-3781356675.445</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1744949.329</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>LOO_XPhos</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>-9467117345.558001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1705273.791</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuBrettPhos</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>-4816982118.155</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1992148.103</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuXPhos</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>-3227530768.925</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1598204.892</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>LOO_AdBrettPhos</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>-5955269999.764</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2189826.596</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>LOO_XPhos</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>-13030230034.022</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2000604.671</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuBrettPhos</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>-6568133704.034</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2326243.098</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>LOO_t-BuXPhos</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>-4420549813.063</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1870403.922</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A9"/>
+  <mergeCells count="17">
+    <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1566,7 +4098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,7 +4173,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -1650,23 +4182,23 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.464</v>
+        <v>0.3896666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.275412418020684</v>
+        <v>0.2424341835082943</v>
       </c>
       <c r="F4" t="n">
-        <v>18.80433333333333</v>
+        <v>20.353</v>
       </c>
       <c r="G4" t="n">
-        <v>3.224457215305132</v>
+        <v>3.235184075133903</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1675,78 +4207,378 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.275412418020684</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.80433333333333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.224457215305132</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.5173333333333333</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>0.3218716100145108</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>17.565</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>4.535787803678651</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_2</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5894999999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1156157428726729</v>
-      </c>
-      <c r="F6" t="n">
-        <v>17.345</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.631017040360375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3249723065124165</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.79266666666667</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.504675497006785</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-1396602909.273</v>
+      </c>
+      <c r="E8" t="n">
+        <v>949731576.3548386</v>
+      </c>
+      <c r="F8" t="n">
+        <v>939830.2446666667</v>
+      </c>
+      <c r="G8" t="n">
+        <v>295269.4903418614</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
           <t>WLpolynomial_3</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-2737571699.241667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2005811544.406852</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1316481.664666667</v>
+      </c>
+      <c r="G9" t="n">
+        <v>444827.3028956067</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-3614963474.761333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2077712686.687205</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1542129.531333334</v>
+      </c>
+      <c r="G10" t="n">
+        <v>394022.0858512422</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-4754133166.907333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2484502778.338352</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1779765.582</v>
+      </c>
+      <c r="G11" t="n">
+        <v>412326.8502631052</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5609999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.144083309234623</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.88975</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.285948911653984</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5894999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1156157428726729</v>
+      </c>
+      <c r="F13" t="n">
+        <v>17.345</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.631017040360375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0.6525000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E14" t="n">
         <v>0.1742077304063552</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F14" t="n">
         <v>15.7455</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G14" t="n">
         <v>3.867074389423266</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.66925</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1815073460405024</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15.295</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.175153490192506</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-2482019730.49975</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2913750286.782293</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1217859.607</v>
+      </c>
+      <c r="G16" t="n">
+        <v>696403.6553404377</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-2216296175.8715</v>
+      </c>
+      <c r="E17" t="n">
+        <v>761988755.6072383</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1267950.80025</v>
+      </c>
+      <c r="G17" t="n">
+        <v>213574.5073298061</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-3673861127.123</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1931571582.291854</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1611674.31225</v>
+      </c>
+      <c r="G18" t="n">
+        <v>411257.0779385881</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-4911489643.650499</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2891445281.240028</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1854471.8615</v>
+      </c>
+      <c r="G19" t="n">
+        <v>523914.430461777</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1758,7 +4590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1833,7 +4665,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -1842,23 +4674,23 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1555</v>
+        <v>0.0625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03464823227814082</v>
+        <v>0.002121320343559645</v>
       </c>
       <c r="F4" t="n">
-        <v>24.2255</v>
+        <v>25.4745</v>
       </c>
       <c r="G4" t="n">
-        <v>4.883986537655484</v>
+        <v>4.588415903119508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -1867,52 +4699,48 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>0.1555</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03464823227814082</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24.2255</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.883986537655484</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.0645</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>0.1336431816442575</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>25.255</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>2.778929650063132</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>halide</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_2</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.2383333333333333</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.065454050315326</v>
-      </c>
-      <c r="F6" t="n">
-        <v>24.183</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8.793002729443453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_5</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1921,24 +4749,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.2606666666666667</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="E7" t="n">
-        <v>1.18040049700656</v>
+        <v>0.1810193359837562</v>
       </c>
       <c r="F7" t="n">
-        <v>24.039</v>
+        <v>25.9655</v>
       </c>
       <c r="G7" t="n">
-        <v>9.679238813047233</v>
+        <v>2.35113004744527</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>WLpolynomial_2</t>
@@ -1950,16 +4774,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6590000000000001</v>
+        <v>-4667804423.119</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01212435565298215</v>
+        <v>5088736167.448391</v>
       </c>
       <c r="F8" t="n">
-        <v>15.18666666666667</v>
+        <v>1528462.707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5075256972147656</v>
+        <v>788659.742541597</v>
       </c>
     </row>
     <row r="9">
@@ -1975,25 +4799,483 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>-2480918564.893</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2287514663.878283</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1170586.8035</v>
+      </c>
+      <c r="G9" t="n">
+        <v>421917.5652641525</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-1982297151.477</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2118819061.56793</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1003390.6045</v>
+      </c>
+      <c r="G10" t="n">
+        <v>495374.7762285837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-2250659799.5705</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2448864549.60707</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1062128.704</v>
+      </c>
+      <c r="G11" t="n">
+        <v>545647.9788704087</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>halide</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.273</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9449322727052981</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25.08733333333333</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.327903679316026</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.2383333333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.065454050315326</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24.183</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8.793002729443453</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.2606666666666667</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.18040049700656</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24.039</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.679238813047233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.2676666666666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.179375399664303</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24.11733333333333</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.720008761998795</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-2123138662.435</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1071580790.729454</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1061873.587</v>
+      </c>
+      <c r="G16" t="n">
+        <v>150295.3337454642</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-2295215727.969</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1012850783.763135</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1111654.537</v>
+      </c>
+      <c r="G17" t="n">
+        <v>118283.6081608147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-3257928163.013333</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2137519953.316629</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1291224.825333333</v>
+      </c>
+      <c r="G18" t="n">
+        <v>269314.1207081776</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-3654051671.339666</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2449770289.385048</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1364731.212</v>
+      </c>
+      <c r="G19" t="n">
+        <v>294721.9626003375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1384593803250614</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.89766666666667</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.155766996046021</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6590000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01212435565298215</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15.18666666666667</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5075256972147656</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>0.6576666666666666</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E22" t="n">
         <v>0.00351188458428425</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F22" t="n">
         <v>15.21666666666667</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G22" t="n">
         <v>0.4944100861970079</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6503333333333333</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.04972256362390551</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15.34733333333333</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.025636550310749</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>-3447950343.938667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1261763561.506984</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1505271.354333333</v>
+      </c>
+      <c r="G24" t="n">
+        <v>210555.3218823048</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>-2603155418.376334</v>
+      </c>
+      <c r="E25" t="n">
+        <v>781473305.8413984</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1321707.581666667</v>
+      </c>
+      <c r="G25" t="n">
+        <v>244454.3955989477</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>-2710546215.366666</v>
+      </c>
+      <c r="E26" t="n">
+        <v>603959132.1321573</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1345654.817666667</v>
+      </c>
+      <c r="G26" t="n">
+        <v>97049.49599322774</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-3164800731.092333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>808863099.4705187</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1451747.906</v>
+      </c>
+      <c r="G27" t="n">
+        <v>143661.7339217334</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2005,7 +5287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,7 +5362,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -2089,48 +5371,198 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4003333333333334</v>
+        <v>0.283</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3712577720847516</v>
+        <v>0.4436586525697431</v>
       </c>
       <c r="F4" t="n">
-        <v>20.22933333333333</v>
+        <v>22.13666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>8.846586027012529</v>
+        <v>9.660847236828319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4003333333333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3712577720847516</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20.22933333333333</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.846586027012529</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5436666666666666</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2184040597913265</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17.67533333333333</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.07717840229603</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2089760751856538</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17.769</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.803509197028982</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-2169202814.240334</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1060160363.361047</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1185893.798666667</v>
+      </c>
+      <c r="G8" t="n">
+        <v>202574.9649114157</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
           <t>WLpolynomial_3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5436666666666666</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2184040597913265</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17.67533333333333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.07717840229603</v>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-1232019942.591667</v>
+      </c>
+      <c r="E9" t="n">
+        <v>630450885.3879259</v>
+      </c>
+      <c r="F9" t="n">
+        <v>885174.7353333334</v>
+      </c>
+      <c r="G9" t="n">
+        <v>176021.7699100086</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-1091467818.888</v>
+      </c>
+      <c r="E10" t="n">
+        <v>573554202.8215374</v>
+      </c>
+      <c r="F10" t="n">
+        <v>828975.9166666666</v>
+      </c>
+      <c r="G10" t="n">
+        <v>180459.784569998</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-1135103201.974</v>
+      </c>
+      <c r="E11" t="n">
+        <v>681944871.9662433</v>
+      </c>
+      <c r="F11" t="n">
+        <v>835752.0523333332</v>
+      </c>
+      <c r="G11" t="n">
+        <v>224914.1679270045</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2142,7 +5574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,7 +5649,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -2226,48 +5658,198 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2745</v>
+        <v>0.22975</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8143895464293075</v>
+        <v>0.628524396238258</v>
       </c>
       <c r="F4" t="n">
-        <v>18.04375</v>
+        <v>20.10125</v>
       </c>
       <c r="G4" t="n">
-        <v>4.760058079127467</v>
+        <v>2.344138132306484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2745</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8143895464293075</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.04375</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.760058079127467</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_4</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.30875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8826741093593565</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.78775</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.718252085792184</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_5</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8771981912126053</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.90325</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.120569274993952</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-2970185559.334</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1552332489.264642</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1318752.95875</v>
+      </c>
+      <c r="G8" t="n">
+        <v>266095.0838064441</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
           <t>WLpolynomial_3</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.30875</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8826741093593565</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16.78775</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.718252085792184</v>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-3656309125.31575</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1980878246.441948</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1456739.17975</v>
+      </c>
+      <c r="G9" t="n">
+        <v>197146.2295160313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_4</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-5323246727.02075</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2840036259.482834</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1760144.02875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>166625.1245272541</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_5</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-7493545887.72075</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3800037571.215603</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2096769.57175</v>
+      </c>
+      <c r="G11" t="n">
+        <v>201500.0451074156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/out_of_sample_results.xlsx
+++ b/yield_prediction/results/out_of_sample_results.xlsx
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-585488198.979</v>
+        <v>-0.536</v>
       </c>
       <c r="F14" t="n">
-        <v>721317.718</v>
+        <v>36.942</v>
       </c>
     </row>
     <row r="15">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1162973466.853</v>
+        <v>0.008</v>
       </c>
       <c r="F15" t="n">
-        <v>822429.7659999999</v>
+        <v>24.024</v>
       </c>
     </row>
     <row r="16">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-2441347061.987</v>
+        <v>-1.303</v>
       </c>
       <c r="F16" t="n">
-        <v>1275743.25</v>
+        <v>39.179</v>
       </c>
     </row>
     <row r="17">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1274362288.142</v>
+        <v>-0.33</v>
       </c>
       <c r="F17" t="n">
-        <v>1064177.28</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="18">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1914331198.307</v>
+        <v>-0.011</v>
       </c>
       <c r="F18" t="n">
-        <v>1055170.049</v>
+        <v>24.245</v>
       </c>
     </row>
     <row r="19">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-5024021611.276</v>
+        <v>-0.87</v>
       </c>
       <c r="F19" t="n">
-        <v>1830097.665</v>
+        <v>35.308</v>
       </c>
     </row>
     <row r="20">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2050585861.423</v>
+        <v>-0.35</v>
       </c>
       <c r="F20" t="n">
-        <v>1349915.258</v>
+        <v>34.638</v>
       </c>
     </row>
     <row r="21">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-2821896105.253</v>
+        <v>-0.022</v>
       </c>
       <c r="F21" t="n">
-        <v>1281104.117</v>
+        <v>24.38</v>
       </c>
     </row>
     <row r="22">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-5972408457.608</v>
+        <v>-0.677</v>
       </c>
       <c r="F22" t="n">
-        <v>1995369.219</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="23">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2939296075.975</v>
+        <v>-0.286</v>
       </c>
       <c r="F23" t="n">
-        <v>1616178.013</v>
+        <v>33.807</v>
       </c>
     </row>
     <row r="24">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-3737356086.767</v>
+        <v>-0.102</v>
       </c>
       <c r="F24" t="n">
-        <v>1474334.933</v>
+        <v>25.321</v>
       </c>
     </row>
     <row r="25">
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-7585747337.98</v>
+        <v>-0.284</v>
       </c>
       <c r="F25" t="n">
-        <v>2248783.8</v>
+        <v>29.256</v>
       </c>
     </row>
     <row r="26">
@@ -1277,10 +1277,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-6850913319.431</v>
+        <v>-0.535</v>
       </c>
       <c r="F42" t="n">
-        <v>2260961.023</v>
+        <v>33.839</v>
       </c>
     </row>
     <row r="43">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1013929984.927</v>
+        <v>-0.531</v>
       </c>
       <c r="F43" t="n">
-        <v>894629.607</v>
+        <v>34.764</v>
       </c>
     </row>
     <row r="44">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-931687733.544</v>
+        <v>-0.444</v>
       </c>
       <c r="F44" t="n">
-        <v>817374.3689999999</v>
+        <v>32.182</v>
       </c>
     </row>
     <row r="45">
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-1131547884.097</v>
+        <v>-0.795</v>
       </c>
       <c r="F45" t="n">
-        <v>898473.429</v>
+        <v>35.787</v>
       </c>
     </row>
     <row r="46">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-3256364943.523</v>
+        <v>-0.116</v>
       </c>
       <c r="F46" t="n">
-        <v>1558781.973</v>
+        <v>28.856</v>
       </c>
     </row>
     <row r="47">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-1720042817.951</v>
+        <v>-0.25</v>
       </c>
       <c r="F47" t="n">
-        <v>1165222.635</v>
+        <v>31.411</v>
       </c>
     </row>
     <row r="48">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-1579695069.37</v>
+        <v>-0.137</v>
       </c>
       <c r="F48" t="n">
-        <v>1064320.574</v>
+        <v>28.558</v>
       </c>
     </row>
     <row r="49">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-2309081872.642</v>
+        <v>-0.274</v>
       </c>
       <c r="F49" t="n">
-        <v>1283478.019</v>
+        <v>30.146</v>
       </c>
     </row>
     <row r="50">
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-6441337529.705</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>2192334.75</v>
+        <v>28.493</v>
       </c>
     </row>
     <row r="51">
@@ -1437,10 +1437,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2561023699.095</v>
+        <v>-0.167</v>
       </c>
       <c r="F51" t="n">
-        <v>1421824.79</v>
+        <v>30.352</v>
       </c>
     </row>
     <row r="52">
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-2165858716.442</v>
+        <v>-0.128</v>
       </c>
       <c r="F52" t="n">
-        <v>1246237.708</v>
+        <v>28.439</v>
       </c>
     </row>
     <row r="53">
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-3527224563.25</v>
+        <v>-0.26</v>
       </c>
       <c r="F53" t="n">
-        <v>1586300.001</v>
+        <v>29.987</v>
       </c>
     </row>
     <row r="54">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-9143772361.903</v>
+        <v>-0.028</v>
       </c>
       <c r="F54" t="n">
-        <v>2612050.337</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="55">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-3346823959.717</v>
+        <v>-0.098</v>
       </c>
       <c r="F55" t="n">
-        <v>1625383.018</v>
+        <v>29.438</v>
       </c>
     </row>
     <row r="56">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-2815158532.523</v>
+        <v>-0.073</v>
       </c>
       <c r="F56" t="n">
-        <v>1420814.087</v>
+        <v>27.743</v>
       </c>
     </row>
     <row r="57">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>-4340203720.459</v>
+        <v>-0.159</v>
       </c>
       <c r="F57" t="n">
-        <v>1759640.004</v>
+        <v>28.754</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-8266084274.791</v>
+        <v>-18.502</v>
       </c>
       <c r="F10" t="n">
-        <v>2086129.359</v>
+        <v>101.329</v>
       </c>
     </row>
     <row r="11">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1069524571.447</v>
+        <v>-0.896</v>
       </c>
       <c r="F11" t="n">
-        <v>970796.0550000001</v>
+        <v>40.879</v>
       </c>
     </row>
     <row r="12">
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-4098435695.785</v>
+        <v>-16.829</v>
       </c>
       <c r="F12" t="n">
-        <v>1468927.575</v>
+        <v>96.886</v>
       </c>
     </row>
     <row r="13">
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-863401434.001</v>
+        <v>-0.755</v>
       </c>
       <c r="F13" t="n">
-        <v>872246.032</v>
+        <v>39.328</v>
       </c>
     </row>
     <row r="14">
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-3480528478.019</v>
+        <v>-0.041</v>
       </c>
       <c r="F14" t="n">
-        <v>1353673.468</v>
+        <v>23.409</v>
       </c>
     </row>
     <row r="15">
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-484065824.935</v>
+        <v>-0.917</v>
       </c>
       <c r="F15" t="n">
-        <v>653107.741</v>
+        <v>41.096</v>
       </c>
     </row>
     <row r="16">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-3982268528.805</v>
+        <v>-0.049</v>
       </c>
       <c r="F16" t="n">
-        <v>1447960.09</v>
+        <v>23.496</v>
       </c>
     </row>
     <row r="17">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-519051070.336</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>676297.318</v>
+        <v>38.504</v>
       </c>
     </row>
     <row r="18">
@@ -2204,10 +2204,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-1350440543.867</v>
+        <v>-0.8139999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>927166.178</v>
+        <v>33.983</v>
       </c>
     </row>
     <row r="31">
@@ -2220,10 +2220,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-3346439694.195</v>
+        <v>-0.001</v>
       </c>
       <c r="F31" t="n">
-        <v>1223985.525</v>
+        <v>21.166</v>
       </c>
     </row>
     <row r="32">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-1672535749.243</v>
+        <v>-2.055</v>
       </c>
       <c r="F32" t="n">
-        <v>1034469.058</v>
+        <v>44.21</v>
       </c>
     </row>
     <row r="33">
@@ -2260,10 +2260,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1629565505.883</v>
+        <v>-0.48</v>
       </c>
       <c r="F33" t="n">
-        <v>1018487.629</v>
+        <v>30.691</v>
       </c>
     </row>
     <row r="34">
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-3460836760.32</v>
+        <v>-0.101</v>
       </c>
       <c r="F34" t="n">
-        <v>1244730.519</v>
+        <v>22.203</v>
       </c>
     </row>
     <row r="35">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1795244917.704</v>
+        <v>-1.262</v>
       </c>
       <c r="F35" t="n">
-        <v>1071745.463</v>
+        <v>38.042</v>
       </c>
     </row>
     <row r="36">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-2123869459.244</v>
+        <v>-0.584</v>
       </c>
       <c r="F36" t="n">
-        <v>1162743.062</v>
+        <v>31.751</v>
       </c>
     </row>
     <row r="37">
@@ -2332,10 +2332,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-5723489761.959</v>
+        <v>-0.056</v>
       </c>
       <c r="F37" t="n">
-        <v>1600719.5</v>
+        <v>21.747</v>
       </c>
     </row>
     <row r="38">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1926425267.837</v>
+        <v>-1.511</v>
       </c>
       <c r="F38" t="n">
-        <v>1110211.914</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="39">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-2364324129.118</v>
+        <v>-0.37</v>
       </c>
       <c r="F39" t="n">
-        <v>1226798.832</v>
+        <v>29.526</v>
       </c>
     </row>
     <row r="40">
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-6479242624.522</v>
+        <v>-0.465</v>
       </c>
       <c r="F40" t="n">
-        <v>1703126.482</v>
+        <v>25.611</v>
       </c>
     </row>
     <row r="41">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-2118588260.379</v>
+        <v>-1.062</v>
       </c>
       <c r="F41" t="n">
-        <v>1164268.322</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="42">
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-4892818200.616</v>
+        <v>-0.769</v>
       </c>
       <c r="F54" t="n">
-        <v>1742761.319</v>
+        <v>33.137</v>
       </c>
     </row>
     <row r="55">
@@ -2672,10 +2672,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-2887735226.785</v>
+        <v>-69.358</v>
       </c>
       <c r="F55" t="n">
-        <v>1431608.864</v>
+        <v>223.462</v>
       </c>
     </row>
     <row r="56">
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-2563297604.415</v>
+        <v>-0.887</v>
       </c>
       <c r="F56" t="n">
-        <v>1341443.88</v>
+        <v>36.395</v>
       </c>
     </row>
     <row r="57">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>-1824068284.429</v>
+        <v>-0.271</v>
       </c>
       <c r="F57" t="n">
-        <v>1064091.364</v>
+        <v>28.088</v>
       </c>
     </row>
     <row r="58">
@@ -2728,10 +2728,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-3386993235.918</v>
+        <v>-0.256</v>
       </c>
       <c r="F58" t="n">
-        <v>1550432.48</v>
+        <v>29.862</v>
       </c>
     </row>
     <row r="59">
@@ -2744,10 +2744,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-2598404734.782</v>
+        <v>-0.356</v>
       </c>
       <c r="F59" t="n">
-        <v>1350598.901</v>
+        <v>30.859</v>
       </c>
     </row>
     <row r="60">
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-3399830827.72</v>
+        <v>-0.382</v>
       </c>
       <c r="F60" t="n">
-        <v>1452737.095</v>
+        <v>29.286</v>
       </c>
     </row>
     <row r="61">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-2457728065.41</v>
+        <v>-0.399</v>
       </c>
       <c r="F61" t="n">
-        <v>1320725.636</v>
+        <v>31.508</v>
       </c>
     </row>
     <row r="62">
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-2274079752.97</v>
+        <v>-0.443</v>
       </c>
       <c r="F62" t="n">
-        <v>1263501.722</v>
+        <v>31.831</v>
       </c>
     </row>
     <row r="63">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-4001389670.519</v>
+        <v>-0.13</v>
       </c>
       <c r="F63" t="n">
-        <v>1576027.517</v>
+        <v>26.487</v>
       </c>
     </row>
     <row r="64">
@@ -2840,10 +2840,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>-3106157096.922</v>
+        <v>-0.143</v>
       </c>
       <c r="F64" t="n">
-        <v>1484763.907</v>
+        <v>28.487</v>
       </c>
     </row>
     <row r="65">
@@ -2856,10 +2856,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-2386855425.836</v>
+        <v>-0.178</v>
       </c>
       <c r="F65" t="n">
-        <v>1294452.294</v>
+        <v>28.752</v>
       </c>
     </row>
   </sheetData>
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-3248288418.323</v>
+        <v>-0.68</v>
       </c>
       <c r="F14" t="n">
-        <v>1405581.958</v>
+        <v>31.965</v>
       </c>
     </row>
     <row r="15">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1129039706.64</v>
+        <v>-1.319</v>
       </c>
       <c r="F15" t="n">
-        <v>1006483.557</v>
+        <v>45.617</v>
       </c>
     </row>
     <row r="16">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-2130280317.758</v>
+        <v>-0.374</v>
       </c>
       <c r="F16" t="n">
-        <v>1145615.881</v>
+        <v>29.097</v>
       </c>
     </row>
     <row r="17">
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1752363541.76</v>
+        <v>-0.205</v>
       </c>
       <c r="F17" t="n">
-        <v>1032383.338</v>
+        <v>27.072</v>
       </c>
     </row>
     <row r="18">
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-530939736.431</v>
+        <v>-0.737</v>
       </c>
       <c r="F18" t="n">
-        <v>690199.581</v>
+        <v>39.473</v>
       </c>
     </row>
     <row r="19">
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1412756549.584</v>
+        <v>-0.067</v>
       </c>
       <c r="F19" t="n">
-        <v>932941.287</v>
+        <v>25.634</v>
       </c>
     </row>
     <row r="20">
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1431098821.626</v>
+        <v>-0.249</v>
       </c>
       <c r="F20" t="n">
-        <v>932961.4399999999</v>
+        <v>27.567</v>
       </c>
     </row>
     <row r="21">
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-429257648.52</v>
+        <v>-0.946</v>
       </c>
       <c r="F21" t="n">
-        <v>620599.0379999999</v>
+        <v>41.785</v>
       </c>
     </row>
     <row r="22">
@@ -3356,10 +3356,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1414046986.518</v>
+        <v>-0.031</v>
       </c>
       <c r="F22" t="n">
-        <v>933367.272</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="23">
@@ -3380,10 +3380,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1295763970.14</v>
+        <v>-0.058</v>
       </c>
       <c r="F23" t="n">
-        <v>887752.353</v>
+        <v>25.365</v>
       </c>
     </row>
     <row r="24">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-387172715.599</v>
+        <v>-0.545</v>
       </c>
       <c r="F24" t="n">
-        <v>589392.2879999999</v>
+        <v>37.232</v>
       </c>
     </row>
     <row r="25">
@@ -3412,10 +3412,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1722372920.183</v>
+        <v>-0.002</v>
       </c>
       <c r="F25" t="n">
-        <v>1030111.516</v>
+        <v>24.844</v>
       </c>
     </row>
   </sheetData>
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1961674800.526</v>
+        <v>-0.66</v>
       </c>
       <c r="F18" t="n">
-        <v>1256818.326</v>
+        <v>36.566</v>
       </c>
     </row>
     <row r="19">
@@ -3814,10 +3814,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-4904555758.109</v>
+        <v>-0.024</v>
       </c>
       <c r="F19" t="n">
-        <v>1227397.051</v>
+        <v>17.732</v>
       </c>
     </row>
     <row r="20">
@@ -3830,10 +3830,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3517631661.471</v>
+        <v>-0.548</v>
       </c>
       <c r="F20" t="n">
-        <v>1702390.888</v>
+        <v>35.713</v>
       </c>
     </row>
     <row r="21">
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1496880017.23</v>
+        <v>-0.975</v>
       </c>
       <c r="F21" t="n">
-        <v>1088405.57</v>
+        <v>39.531</v>
       </c>
     </row>
     <row r="22">
@@ -3870,10 +3870,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-2535912993.991</v>
+        <v>-0.385</v>
       </c>
       <c r="F22" t="n">
-        <v>1428980.073</v>
+        <v>33.394</v>
       </c>
     </row>
     <row r="23">
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-6448441944.782</v>
+        <v>-0.09</v>
       </c>
       <c r="F23" t="n">
-        <v>1407384.081</v>
+        <v>18.298</v>
       </c>
     </row>
     <row r="24">
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-3633764496.568</v>
+        <v>-0.278</v>
       </c>
       <c r="F24" t="n">
-        <v>1730264.486</v>
+        <v>32.448</v>
       </c>
     </row>
     <row r="25">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-2007117065.922</v>
+        <v>-0.518</v>
       </c>
       <c r="F25" t="n">
-        <v>1260328.079</v>
+        <v>34.655</v>
       </c>
     </row>
     <row r="26">
@@ -3942,10 +3942,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-3781356675.445</v>
+        <v>-0.433</v>
       </c>
       <c r="F26" t="n">
-        <v>1744949.329</v>
+        <v>33.967</v>
       </c>
     </row>
     <row r="27">
@@ -3958,10 +3958,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-9467117345.558001</v>
+        <v>-0.026</v>
       </c>
       <c r="F27" t="n">
-        <v>1705273.791</v>
+        <v>17.752</v>
       </c>
     </row>
     <row r="28">
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-4816982118.155</v>
+        <v>-0.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1992148.103</v>
+        <v>33.345</v>
       </c>
     </row>
     <row r="29">
@@ -3990,10 +3990,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-3227530768.925</v>
+        <v>-0.611</v>
       </c>
       <c r="F29" t="n">
-        <v>1598204.892</v>
+        <v>35.701</v>
       </c>
     </row>
     <row r="30">
@@ -4014,10 +4014,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-5955269999.764</v>
+        <v>-0.179</v>
       </c>
       <c r="F30" t="n">
-        <v>2189826.596</v>
+        <v>30.811</v>
       </c>
     </row>
     <row r="31">
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-13030230034.022</v>
+        <v>-0.256</v>
       </c>
       <c r="F31" t="n">
-        <v>2000604.671</v>
+        <v>19.644</v>
       </c>
     </row>
     <row r="32">
@@ -4046,10 +4046,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-6568133704.034</v>
+        <v>-0.159</v>
       </c>
       <c r="F32" t="n">
-        <v>2326243.098</v>
+        <v>30.898</v>
       </c>
     </row>
     <row r="33">
@@ -4062,10 +4062,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-4420549813.063</v>
+        <v>-0.388</v>
       </c>
       <c r="F33" t="n">
-        <v>1870403.922</v>
+        <v>33.147</v>
       </c>
     </row>
   </sheetData>
@@ -4282,16 +4282,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1396602909.273</v>
+        <v>-0.6103333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>949731576.3548386</v>
+        <v>0.658653424293333</v>
       </c>
       <c r="F8" t="n">
-        <v>939830.2446666667</v>
+        <v>33.38166666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>295269.4903418614</v>
+        <v>8.180799859019492</v>
       </c>
     </row>
     <row r="9">
@@ -4307,16 +4307,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-2737571699.241667</v>
+        <v>-0.4036666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>2005811544.406852</v>
+        <v>0.4342123136592666</v>
       </c>
       <c r="F9" t="n">
-        <v>1316481.664666667</v>
+        <v>31.30933333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>444827.3028956067</v>
+        <v>6.135652070752816</v>
       </c>
     </row>
     <row r="10">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-3614963474.761333</v>
+        <v>-0.3496666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>2077712686.687205</v>
+        <v>0.3275001272264384</v>
       </c>
       <c r="F10" t="n">
-        <v>1542129.531333334</v>
+        <v>30.81933333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>394022.0858512422</v>
+        <v>5.608704068974697</v>
       </c>
     </row>
     <row r="11">
@@ -4357,16 +4357,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-4754133166.907333</v>
+        <v>-0.224</v>
       </c>
       <c r="E11" t="n">
-        <v>2484502778.338352</v>
+        <v>0.1056598315349783</v>
       </c>
       <c r="F11" t="n">
-        <v>1779765.582</v>
+        <v>29.46133333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>412326.8502631052</v>
+        <v>4.24672465946797</v>
       </c>
     </row>
     <row r="12">
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-2482019730.49975</v>
+        <v>-0.57625</v>
       </c>
       <c r="E16" t="n">
-        <v>2913750286.782293</v>
+        <v>0.1517572074070948</v>
       </c>
       <c r="F16" t="n">
-        <v>1217859.607</v>
+        <v>34.143</v>
       </c>
       <c r="G16" t="n">
-        <v>696403.6553404377</v>
+        <v>1.530393631281398</v>
       </c>
     </row>
     <row r="17">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-2216296175.8715</v>
+        <v>-0.19425</v>
       </c>
       <c r="E17" t="n">
-        <v>761988755.6072383</v>
+        <v>0.07930689335318422</v>
       </c>
       <c r="F17" t="n">
-        <v>1267950.80025</v>
+        <v>29.74275</v>
       </c>
       <c r="G17" t="n">
-        <v>213574.5073298061</v>
+        <v>1.308386633733827</v>
       </c>
     </row>
     <row r="18">
@@ -4536,16 +4536,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-3673861127.123</v>
+        <v>-0.16075</v>
       </c>
       <c r="E18" t="n">
-        <v>1931571582.291854</v>
+        <v>0.07360876306527642</v>
       </c>
       <c r="F18" t="n">
-        <v>1611674.31225</v>
+        <v>29.31775</v>
       </c>
       <c r="G18" t="n">
-        <v>411257.0779385881</v>
+        <v>0.9949845476187056</v>
       </c>
     </row>
     <row r="19">
@@ -4561,16 +4561,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-4911489643.650499</v>
+        <v>-0.0895</v>
       </c>
       <c r="E19" t="n">
-        <v>2891445281.240028</v>
+        <v>0.05464125425598013</v>
       </c>
       <c r="F19" t="n">
-        <v>1854471.8615</v>
+        <v>28.40625</v>
       </c>
       <c r="G19" t="n">
-        <v>523914.430461777</v>
+        <v>0.8442655091853507</v>
       </c>
     </row>
   </sheetData>
@@ -4774,16 +4774,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-4667804423.119</v>
+        <v>-9.699</v>
       </c>
       <c r="E8" t="n">
-        <v>5088736167.448391</v>
+        <v>12.44932198957035</v>
       </c>
       <c r="F8" t="n">
-        <v>1528462.707</v>
+        <v>71.104</v>
       </c>
       <c r="G8" t="n">
-        <v>788659.742541597</v>
+        <v>42.74460492272679</v>
       </c>
     </row>
     <row r="9">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-2480918564.893</v>
+        <v>-8.792</v>
       </c>
       <c r="E9" t="n">
-        <v>2287514663.878283</v>
+        <v>11.36603440079256</v>
       </c>
       <c r="F9" t="n">
-        <v>1170586.8035</v>
+        <v>68.107</v>
       </c>
       <c r="G9" t="n">
-        <v>421917.5652641525</v>
+        <v>40.6996521115353</v>
       </c>
     </row>
     <row r="10">
@@ -4824,16 +4824,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1982297151.477</v>
+        <v>-0.479</v>
       </c>
       <c r="E10" t="n">
-        <v>2118819061.56793</v>
+        <v>0.6194255403194157</v>
       </c>
       <c r="F10" t="n">
-        <v>1003390.6045</v>
+        <v>32.2525</v>
       </c>
       <c r="G10" t="n">
-        <v>495374.7762285837</v>
+        <v>12.50659763884646</v>
       </c>
     </row>
     <row r="11">
@@ -4849,16 +4849,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-2250659799.5705</v>
+        <v>-0.3655</v>
       </c>
       <c r="E11" t="n">
-        <v>2448864549.60707</v>
+        <v>0.4475985924910846</v>
       </c>
       <c r="F11" t="n">
-        <v>1062128.704</v>
+        <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>545647.9788704087</v>
+        <v>10.6122585720477</v>
       </c>
     </row>
     <row r="12">
@@ -4978,16 +4978,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-2123138662.435</v>
+        <v>-0.9566666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>1071580790.729454</v>
+        <v>1.034405304188515</v>
       </c>
       <c r="F16" t="n">
-        <v>1061873.587</v>
+        <v>33.11966666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>150295.3337454642</v>
+        <v>11.5462328199865</v>
       </c>
     </row>
     <row r="17">
@@ -5003,16 +5003,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-2295215727.969</v>
+        <v>-0.6143333333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>1012850783.763135</v>
+        <v>0.5920425097350134</v>
       </c>
       <c r="F17" t="n">
-        <v>1111654.537</v>
+        <v>30.312</v>
       </c>
       <c r="G17" t="n">
-        <v>118283.6081608147</v>
+        <v>7.926298694851211</v>
       </c>
     </row>
     <row r="18">
@@ -5028,16 +5028,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-3257928163.013333</v>
+        <v>-0.717</v>
       </c>
       <c r="E18" t="n">
-        <v>2137519953.316629</v>
+        <v>0.7365616063846933</v>
       </c>
       <c r="F18" t="n">
-        <v>1291224.825333333</v>
+        <v>31.19266666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>269314.1207081776</v>
+        <v>9.179244213623109</v>
       </c>
     </row>
     <row r="19">
@@ -5053,16 +5053,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-3654051671.339666</v>
+        <v>-0.6323333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>2449770289.385048</v>
+        <v>0.3751217580110935</v>
       </c>
       <c r="F19" t="n">
-        <v>1364731.212</v>
+        <v>30.48566666666666</v>
       </c>
       <c r="G19" t="n">
-        <v>294721.9626003375</v>
+        <v>5.418615167488214</v>
       </c>
     </row>
     <row r="20">
@@ -5182,16 +5182,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-3447950343.938667</v>
+        <v>-23.67133333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>1261763561.506984</v>
+        <v>39.56585793753667</v>
       </c>
       <c r="F24" t="n">
-        <v>1505271.354333333</v>
+        <v>97.66466666666666</v>
       </c>
       <c r="G24" t="n">
-        <v>210555.3218823048</v>
+        <v>108.9558646715877</v>
       </c>
     </row>
     <row r="25">
@@ -5207,16 +5207,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-2603155418.376334</v>
+        <v>-0.2943333333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>781473305.8413984</v>
+        <v>0.05392896562454477</v>
       </c>
       <c r="F25" t="n">
-        <v>1321707.581666667</v>
+        <v>29.603</v>
       </c>
       <c r="G25" t="n">
-        <v>244454.3955989477</v>
+        <v>1.403538741894929</v>
       </c>
     </row>
     <row r="26">
@@ -5232,16 +5232,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-2710546215.366666</v>
+        <v>-0.4080000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>603959132.1321573</v>
+        <v>0.03148015247739439</v>
       </c>
       <c r="F26" t="n">
-        <v>1345654.817666667</v>
+        <v>30.875</v>
       </c>
       <c r="G26" t="n">
-        <v>97049.49599322774</v>
+        <v>1.385558732064432</v>
       </c>
     </row>
     <row r="27">
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-3164800731.092333</v>
+        <v>-0.1503333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>808863099.4705187</v>
+        <v>0.0248260615751539</v>
       </c>
       <c r="F27" t="n">
-        <v>1451747.906</v>
+        <v>27.90866666666667</v>
       </c>
       <c r="G27" t="n">
-        <v>143661.7339217334</v>
+        <v>1.23830865834546</v>
       </c>
     </row>
   </sheetData>
@@ -5471,16 +5471,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-2169202814.240334</v>
+        <v>-0.791</v>
       </c>
       <c r="E8" t="n">
-        <v>1060160363.361047</v>
+        <v>0.4821794271845284</v>
       </c>
       <c r="F8" t="n">
-        <v>1185893.798666667</v>
+        <v>35.55966666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>202574.9649114157</v>
+        <v>8.827163832926933</v>
       </c>
     </row>
     <row r="9">
@@ -5496,16 +5496,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1232019942.591667</v>
+        <v>-0.3363333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>630450885.3879259</v>
+        <v>0.3537814768092492</v>
       </c>
       <c r="F9" t="n">
-        <v>885174.7353333334</v>
+        <v>30.72633333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>176021.7699100086</v>
+        <v>7.608882594266607</v>
       </c>
     </row>
     <row r="10">
@@ -5521,16 +5521,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1091467818.888</v>
+        <v>-0.4086666666666666</v>
       </c>
       <c r="E10" t="n">
-        <v>573554202.8215374</v>
+        <v>0.4779396754124242</v>
       </c>
       <c r="F10" t="n">
-        <v>828975.9166666666</v>
+        <v>31.51733333333334</v>
       </c>
       <c r="G10" t="n">
-        <v>180459.784569998</v>
+        <v>8.970474142058118</v>
       </c>
     </row>
     <row r="11">
@@ -5546,16 +5546,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-1135103201.974</v>
+        <v>-0.2016666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>681944871.9662433</v>
+        <v>0.2986508552362329</v>
       </c>
       <c r="F11" t="n">
-        <v>835752.0523333332</v>
+        <v>29.147</v>
       </c>
       <c r="G11" t="n">
-        <v>224914.1679270045</v>
+        <v>7.006659617820748</v>
       </c>
     </row>
   </sheetData>
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-2970185559.334</v>
+        <v>-0.5517500000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>1552332489.264642</v>
+        <v>0.3955556218788958</v>
       </c>
       <c r="F8" t="n">
-        <v>1318752.95875</v>
+        <v>32.3855</v>
       </c>
       <c r="G8" t="n">
-        <v>266095.0838064441</v>
+        <v>9.905084031277408</v>
       </c>
     </row>
     <row r="9">
@@ -5783,16 +5783,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-3656309125.31575</v>
+        <v>-0.31775</v>
       </c>
       <c r="E9" t="n">
-        <v>1980878246.441948</v>
+        <v>0.1808062959818232</v>
       </c>
       <c r="F9" t="n">
-        <v>1456739.17975</v>
+        <v>29.69875</v>
       </c>
       <c r="G9" t="n">
-        <v>197146.2295160313</v>
+        <v>7.654078711162218</v>
       </c>
     </row>
     <row r="10">
@@ -5808,16 +5808,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-5323246727.02075</v>
+        <v>-0.355</v>
       </c>
       <c r="E10" t="n">
-        <v>2840036259.482834</v>
+        <v>0.2448713948177696</v>
       </c>
       <c r="F10" t="n">
-        <v>1760144.02875</v>
+        <v>30.19125</v>
       </c>
       <c r="G10" t="n">
-        <v>166625.1245272541</v>
+        <v>8.352538790691126</v>
       </c>
     </row>
     <row r="11">
@@ -5833,16 +5833,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-7493545887.72075</v>
+        <v>-0.2455</v>
       </c>
       <c r="E11" t="n">
-        <v>3800037571.215603</v>
+        <v>0.1037962748207597</v>
       </c>
       <c r="F11" t="n">
-        <v>2096769.57175</v>
+        <v>28.625</v>
       </c>
       <c r="G11" t="n">
-        <v>201500.0451074156</v>
+        <v>6.084186332890646</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/out_of_sample_results.xlsx
+++ b/yield_prediction/results/out_of_sample_results.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.666</v>
+        <v>-0.536</v>
       </c>
       <c r="F8" t="n">
-        <v>17.23</v>
+        <v>36.942</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.148</v>
+        <v>0.008</v>
       </c>
       <c r="F9" t="n">
-        <v>22.259</v>
+        <v>24.024</v>
       </c>
     </row>
     <row r="10">
@@ -681,17 +681,17 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.738</v>
+        <v>-1.303</v>
       </c>
       <c r="F10" t="n">
-        <v>13.206</v>
+        <v>39.179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.657</v>
+        <v>-0.33</v>
       </c>
       <c r="F11" t="n">
-        <v>17.47</v>
+        <v>34.375</v>
       </c>
     </row>
     <row r="12">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.133</v>
+        <v>-0.011</v>
       </c>
       <c r="F12" t="n">
-        <v>22.45</v>
+        <v>24.245</v>
       </c>
     </row>
     <row r="13">
@@ -737,17 +737,17 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.728</v>
+        <v>-0.87</v>
       </c>
       <c r="F13" t="n">
-        <v>13.458</v>
+        <v>35.308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.536</v>
+        <v>-0.187</v>
       </c>
       <c r="F14" t="n">
-        <v>36.942</v>
+        <v>32.48</v>
       </c>
     </row>
     <row r="15">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.008</v>
+        <v>-0.18</v>
       </c>
       <c r="F15" t="n">
-        <v>24.024</v>
+        <v>26.198</v>
       </c>
     </row>
     <row r="16">
@@ -793,17 +793,17 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-1.303</v>
+        <v>-0.145</v>
       </c>
       <c r="F16" t="n">
-        <v>39.179</v>
+        <v>27.623</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.33</v>
+        <v>-0.091</v>
       </c>
       <c r="F17" t="n">
-        <v>34.375</v>
+        <v>31.144</v>
       </c>
     </row>
     <row r="18">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.011</v>
+        <v>-0.17</v>
       </c>
       <c r="F18" t="n">
-        <v>24.245</v>
+        <v>26.084</v>
       </c>
     </row>
     <row r="19">
@@ -849,17 +849,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.87</v>
+        <v>-0.141</v>
       </c>
       <c r="F19" t="n">
-        <v>35.308</v>
+        <v>27.575</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -869,14 +873,14 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>plate_1</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.35</v>
+        <v>0.399</v>
       </c>
       <c r="F20" t="n">
-        <v>34.638</v>
+        <v>21.182</v>
       </c>
     </row>
     <row r="21">
@@ -885,14 +889,14 @@
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>plate_2</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.022</v>
+        <v>0.483</v>
       </c>
       <c r="F21" t="n">
-        <v>24.38</v>
+        <v>20.192</v>
       </c>
     </row>
     <row r="22">
@@ -901,54 +905,54 @@
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>plate_3</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.677</v>
+        <v>0.705</v>
       </c>
       <c r="F22" t="n">
-        <v>33.44</v>
+        <v>14.543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>plate_1</t>
+          <t>ranking_test4</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.286</v>
+        <v>0.657</v>
       </c>
       <c r="F23" t="n">
-        <v>33.807</v>
+        <v>15.642</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>plate_2</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.102</v>
+        <v>0.434</v>
       </c>
       <c r="F24" t="n">
-        <v>25.321</v>
+        <v>20.549</v>
       </c>
     </row>
     <row r="25">
@@ -957,42 +961,30 @@
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>plate_3</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.284</v>
+        <v>0.569</v>
       </c>
       <c r="F25" t="n">
-        <v>29.256</v>
+        <v>18.449</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_2</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.399</v>
+        <v>0.68</v>
       </c>
       <c r="F26" t="n">
-        <v>21.182</v>
+        <v>15.153</v>
       </c>
     </row>
     <row r="27">
@@ -1001,30 +993,38 @@
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test4</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.483</v>
+        <v>0.675</v>
       </c>
       <c r="F27" t="n">
-        <v>20.192</v>
+        <v>15.229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.705</v>
+        <v>-0.535</v>
       </c>
       <c r="F28" t="n">
-        <v>14.543</v>
+        <v>33.839</v>
       </c>
     </row>
     <row r="29">
@@ -1033,38 +1033,30 @@
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>ranking_test4</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.657</v>
+        <v>-0.531</v>
       </c>
       <c r="F29" t="n">
-        <v>15.642</v>
+        <v>34.764</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_3</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.434</v>
+        <v>-0.444</v>
       </c>
       <c r="F30" t="n">
-        <v>20.549</v>
+        <v>32.182</v>
       </c>
     </row>
     <row r="31">
@@ -1073,30 +1065,38 @@
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test4</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.569</v>
+        <v>-0.795</v>
       </c>
       <c r="F31" t="n">
-        <v>18.449</v>
+        <v>35.787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.68</v>
+        <v>-0.116</v>
       </c>
       <c r="F32" t="n">
-        <v>15.153</v>
+        <v>28.856</v>
       </c>
     </row>
     <row r="33">
@@ -1105,38 +1105,30 @@
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>ranking_test4</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.675</v>
+        <v>-0.25</v>
       </c>
       <c r="F33" t="n">
-        <v>15.229</v>
+        <v>31.411</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_4</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.397</v>
+        <v>-0.137</v>
       </c>
       <c r="F34" t="n">
-        <v>21.211</v>
+        <v>28.558</v>
       </c>
     </row>
     <row r="35">
@@ -1145,30 +1137,38 @@
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test4</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6860000000000001</v>
+        <v>-0.274</v>
       </c>
       <c r="F35" t="n">
-        <v>15.755</v>
+        <v>30.146</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.763</v>
+        <v>-0.001</v>
       </c>
       <c r="F36" t="n">
-        <v>13.048</v>
+        <v>27.329</v>
       </c>
     </row>
     <row r="37">
@@ -1177,38 +1177,30 @@
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>ranking_test4</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.764</v>
+        <v>-0.025</v>
       </c>
       <c r="F37" t="n">
-        <v>12.968</v>
+        <v>28.439</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_5</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.408</v>
+        <v>-0.025</v>
       </c>
       <c r="F38" t="n">
-        <v>21.009</v>
+        <v>27.115</v>
       </c>
     </row>
     <row r="39">
@@ -1217,30 +1209,38 @@
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test4</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.6850000000000001</v>
+        <v>-0.076</v>
       </c>
       <c r="F39" t="n">
-        <v>15.781</v>
+        <v>27.709</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.782</v>
+        <v>-0.002</v>
       </c>
       <c r="F40" t="n">
-        <v>12.503</v>
+        <v>27.344</v>
       </c>
     </row>
     <row r="41">
@@ -1249,38 +1249,30 @@
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>ranking_test4</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.802</v>
+        <v>-0.001</v>
       </c>
       <c r="F41" t="n">
-        <v>11.887</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_2</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.535</v>
+        <v>-0.032</v>
       </c>
       <c r="F42" t="n">
-        <v>33.839</v>
+        <v>27.209</v>
       </c>
     </row>
     <row r="43">
@@ -1289,300 +1281,44 @@
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test4</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.531</v>
+        <v>-0.002</v>
       </c>
       <c r="F43" t="n">
-        <v>34.764</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="F44" t="n">
-        <v>32.182</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test4</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>-0.795</v>
-      </c>
-      <c r="F45" t="n">
-        <v>35.787</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>-0.116</v>
-      </c>
-      <c r="F46" t="n">
-        <v>28.856</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="F47" t="n">
-        <v>31.411</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="n"/>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>-0.137</v>
-      </c>
-      <c r="F48" t="n">
-        <v>28.558</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test4</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>-0.274</v>
-      </c>
-      <c r="F49" t="n">
-        <v>30.146</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>-0.08799999999999999</v>
-      </c>
-      <c r="F50" t="n">
-        <v>28.493</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>-0.167</v>
-      </c>
-      <c r="F51" t="n">
-        <v>30.352</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n"/>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>-0.128</v>
-      </c>
-      <c r="F52" t="n">
-        <v>28.439</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
-      <c r="D53" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test4</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="F53" t="n">
-        <v>29.987</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>-0.028</v>
-      </c>
-      <c r="F54" t="n">
-        <v>27.69</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>-0.098</v>
-      </c>
-      <c r="F55" t="n">
-        <v>29.438</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>-0.073</v>
-      </c>
-      <c r="F56" t="n">
-        <v>27.743</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n"/>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test4</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>-0.159</v>
-      </c>
-      <c r="F57" t="n">
-        <v>28.754</v>
+        <v>26.731</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A57"/>
+  <mergeCells count="26">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A43"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C43"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1594,7 +1330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1722,7 +1458,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1736,10 +1472,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.03</v>
+        <v>-18.502</v>
       </c>
       <c r="F6" t="n">
-        <v>23.29</v>
+        <v>101.329</v>
       </c>
     </row>
     <row r="7">
@@ -1752,17 +1488,17 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.159</v>
+        <v>-0.896</v>
       </c>
       <c r="F7" t="n">
-        <v>27.22</v>
+        <v>40.879</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1776,10 +1512,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.122</v>
+        <v>-16.829</v>
       </c>
       <c r="F8" t="n">
-        <v>24.303</v>
+        <v>96.886</v>
       </c>
     </row>
     <row r="9">
@@ -1792,17 +1528,17 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.134</v>
+        <v>-0.755</v>
       </c>
       <c r="F9" t="n">
-        <v>27.628</v>
+        <v>39.328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -1816,10 +1552,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-18.502</v>
+        <v>-0.513</v>
       </c>
       <c r="F10" t="n">
-        <v>101.329</v>
+        <v>28.227</v>
       </c>
     </row>
     <row r="11">
@@ -1832,17 +1568,17 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.896</v>
+        <v>-0.479</v>
       </c>
       <c r="F11" t="n">
-        <v>40.879</v>
+        <v>36.096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -1856,10 +1592,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-16.829</v>
+        <v>-0.761</v>
       </c>
       <c r="F12" t="n">
-        <v>96.886</v>
+        <v>30.449</v>
       </c>
     </row>
     <row r="13">
@@ -1872,17 +1608,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.755</v>
+        <v>-0.477</v>
       </c>
       <c r="F13" t="n">
-        <v>39.328</v>
+        <v>36.079</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>halide</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -1892,14 +1632,14 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>aryl_test_phenyl</t>
+          <t>halide_test_Br</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.041</v>
+        <v>0.514</v>
       </c>
       <c r="F14" t="n">
-        <v>23.409</v>
+        <v>17.589</v>
       </c>
     </row>
     <row r="15">
@@ -1908,82 +1648,70 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>aryl_test_pyridyl</t>
+          <t>halide_test_Cl</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.917</v>
+        <v>-1.321</v>
       </c>
       <c r="F15" t="n">
-        <v>41.096</v>
+        <v>32.232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>aryl_test_phenyl</t>
+          <t>halide_test_I</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.049</v>
+        <v>-0.012</v>
       </c>
       <c r="F16" t="n">
-        <v>23.496</v>
+        <v>25.441</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>aryl_test_pyridyl</t>
+          <t>halide_test_Br</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.6820000000000001</v>
+        <v>0.628</v>
       </c>
       <c r="F17" t="n">
-        <v>38.504</v>
+        <v>15.386</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>halide</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_2</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>halide_test_Cl</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.514</v>
+        <v>-1.428</v>
       </c>
       <c r="F18" t="n">
-        <v>17.589</v>
+        <v>32.972</v>
       </c>
     </row>
     <row r="19">
@@ -1992,54 +1720,54 @@
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>halide_test_I</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1.321</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>32.232</v>
+        <v>24.191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>halide_test_Br</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.012</v>
+        <v>-0.8139999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>25.441</v>
+        <v>33.983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_3</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>halide_test_Cl</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.628</v>
+        <v>-0.001</v>
       </c>
       <c r="F21" t="n">
-        <v>15.386</v>
+        <v>21.166</v>
       </c>
     </row>
     <row r="22">
@@ -2048,54 +1776,54 @@
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>halide_test_I</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1.428</v>
+        <v>-2.055</v>
       </c>
       <c r="F22" t="n">
-        <v>32.972</v>
+        <v>44.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>halide_test_Br</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.08500000000000001</v>
+        <v>-0.48</v>
       </c>
       <c r="F23" t="n">
-        <v>24.191</v>
+        <v>30.691</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_4</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>halide_test_Cl</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.658</v>
+        <v>-0.101</v>
       </c>
       <c r="F24" t="n">
-        <v>14.751</v>
+        <v>22.203</v>
       </c>
     </row>
     <row r="25">
@@ -2104,54 +1832,54 @@
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>halide_test_I</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1.592</v>
+        <v>-1.262</v>
       </c>
       <c r="F25" t="n">
-        <v>34.067</v>
+        <v>38.042</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>halide_test_Br</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.152</v>
+        <v>-0.251</v>
       </c>
       <c r="F26" t="n">
-        <v>23.299</v>
+        <v>28.219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_5</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>halide_test_Cl</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.663</v>
+        <v>-1.319</v>
       </c>
       <c r="F27" t="n">
-        <v>14.655</v>
+        <v>32.222</v>
       </c>
     </row>
     <row r="28">
@@ -2160,54 +1888,54 @@
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>halide_test_I</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1.594</v>
+        <v>-0.883</v>
       </c>
       <c r="F28" t="n">
-        <v>34.076</v>
+        <v>34.709</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>halide_test_Br</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.128</v>
+        <v>-0.09</v>
       </c>
       <c r="F29" t="n">
-        <v>23.621</v>
+        <v>26.339</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_2</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>halide_test_Cl</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.8139999999999999</v>
+        <v>-1.951</v>
       </c>
       <c r="F30" t="n">
-        <v>33.983</v>
+        <v>36.35</v>
       </c>
     </row>
     <row r="31">
@@ -2216,54 +1944,58 @@
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>halide_test_I</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.001</v>
+        <v>-0.576</v>
       </c>
       <c r="F31" t="n">
-        <v>21.166</v>
+        <v>31.752</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-2.055</v>
+        <v>0.62</v>
       </c>
       <c r="F32" t="n">
-        <v>44.21</v>
+        <v>15.349</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.48</v>
+        <v>0.439</v>
       </c>
       <c r="F33" t="n">
-        <v>30.691</v>
+        <v>19.955</v>
       </c>
     </row>
     <row r="34">
@@ -2272,54 +2004,54 @@
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.101</v>
+        <v>0.348</v>
       </c>
       <c r="F34" t="n">
-        <v>22.203</v>
+        <v>21.389</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1.262</v>
+        <v>0.652</v>
       </c>
       <c r="F35" t="n">
-        <v>38.042</v>
+        <v>14.693</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.584</v>
+        <v>0.652</v>
       </c>
       <c r="F36" t="n">
-        <v>31.751</v>
+        <v>15.707</v>
       </c>
     </row>
     <row r="37">
@@ -2328,54 +2060,54 @@
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.056</v>
+        <v>0.673</v>
       </c>
       <c r="F37" t="n">
-        <v>21.747</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1.511</v>
+        <v>-0.769</v>
       </c>
       <c r="F38" t="n">
-        <v>40.08</v>
+        <v>33.137</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Br</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-0.37</v>
+        <v>-69.358</v>
       </c>
       <c r="F39" t="n">
-        <v>29.526</v>
+        <v>223.462</v>
       </c>
     </row>
     <row r="40">
@@ -2384,58 +2116,54 @@
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>halide_test_Cl</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.465</v>
+        <v>-0.887</v>
       </c>
       <c r="F40" t="n">
-        <v>25.611</v>
+        <v>36.395</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>halide_test_I</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-1.062</v>
+        <v>-0.271</v>
       </c>
       <c r="F41" t="n">
-        <v>36.32</v>
+        <v>28.088</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_2</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.62</v>
+        <v>-0.256</v>
       </c>
       <c r="F42" t="n">
-        <v>15.349</v>
+        <v>29.862</v>
       </c>
     </row>
     <row r="43">
@@ -2444,54 +2172,54 @@
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.439</v>
+        <v>-0.356</v>
       </c>
       <c r="F43" t="n">
-        <v>19.955</v>
+        <v>30.859</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.348</v>
+        <v>-0.018</v>
       </c>
       <c r="F44" t="n">
-        <v>21.389</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_3</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.652</v>
+        <v>-0.015</v>
       </c>
       <c r="F45" t="n">
-        <v>14.693</v>
+        <v>26.842</v>
       </c>
     </row>
     <row r="46">
@@ -2500,54 +2228,54 @@
       <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.652</v>
+        <v>-0.053</v>
       </c>
       <c r="F46" t="n">
-        <v>15.707</v>
+        <v>27.185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>ranking_test3</t>
+          <t>ranking_test1</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.673</v>
+        <v>-0.003</v>
       </c>
       <c r="F47" t="n">
-        <v>15.16</v>
+        <v>24.951</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_4</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>ranking_test1</t>
+          <t>ranking_test2</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.654</v>
+        <v>-0.002</v>
       </c>
       <c r="F48" t="n">
-        <v>14.646</v>
+        <v>26.665</v>
       </c>
     </row>
     <row r="49">
@@ -2556,371 +2284,469 @@
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.661</v>
+        <v>-0.061</v>
       </c>
       <c r="F49" t="n">
-        <v>15.516</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="F50" t="n">
-        <v>15.488</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_5</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F51" t="n">
-        <v>15.162</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n"/>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="F52" t="n">
-        <v>14.427</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
-      <c r="D53" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="F53" t="n">
-        <v>16.453</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_2</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>-0.769</v>
-      </c>
-      <c r="F54" t="n">
-        <v>33.137</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
-      <c r="D55" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>-69.358</v>
-      </c>
-      <c r="F55" t="n">
-        <v>223.462</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>-0.887</v>
-      </c>
-      <c r="F56" t="n">
-        <v>36.395</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>-0.271</v>
-      </c>
-      <c r="F57" t="n">
-        <v>28.088</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="n"/>
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>-0.256</v>
-      </c>
-      <c r="F58" t="n">
-        <v>29.862</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n"/>
-      <c r="D59" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>-0.356</v>
-      </c>
-      <c r="F59" t="n">
-        <v>30.859</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>-0.382</v>
-      </c>
-      <c r="F60" t="n">
-        <v>29.286</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n"/>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>-0.399</v>
-      </c>
-      <c r="F61" t="n">
-        <v>31.508</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n"/>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>-0.443</v>
-      </c>
-      <c r="F62" t="n">
-        <v>31.831</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test1</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="F63" t="n">
-        <v>26.487</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n"/>
-      <c r="D64" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test2</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>-0.143</v>
-      </c>
-      <c r="F64" t="n">
-        <v>28.487</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n"/>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>-0.178</v>
-      </c>
-      <c r="F65" t="n">
-        <v>28.752</v>
+        <v>27.288</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A41"/>
-    <mergeCell ref="A42:A65"/>
+  <mergeCells count="39">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A31"/>
+    <mergeCell ref="A32:A49"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Descriptor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Test Set</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R-squared</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>LOO</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_2</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.186</v>
+      </c>
+      <c r="F3" t="n">
+        <v>32.624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.186</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.346</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>29.797</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.545</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31.965</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.319</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45.617</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.374</v>
+      </c>
+      <c r="F10" t="n">
+        <v>29.097</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_3</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.072</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.737</v>
+      </c>
+      <c r="F12" t="n">
+        <v>39.473</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25.634</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24.664</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.264</v>
+      </c>
+      <c r="F15" t="n">
+        <v>33.682</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.131</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26.398</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>LOO_BTMG</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="F17" t="n">
+        <v>24.945</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>LOO_MTBD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31.709</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>LOO_P2Et</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.323</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28.552</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2984,14 +2810,14 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>LOO_BTMG</t>
+          <t>LOO_AdBrettPhos</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.696</v>
+        <v>0.444</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6</v>
+        <v>21.156</v>
       </c>
     </row>
     <row r="3">
@@ -3000,14 +2826,14 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>LOO_MTBD</t>
+          <t>LOO_XPhos</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.186</v>
+        <v>-0.707</v>
       </c>
       <c r="F3" t="n">
-        <v>32.624</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="4">
@@ -3016,54 +2842,54 @@
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>LOO_P2Et</t>
+          <t>LOO_t-BuBrettPhos</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.339</v>
+        <v>0.61</v>
       </c>
       <c r="F4" t="n">
-        <v>20.186</v>
+        <v>17.935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_3</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>LOO_BTMG</t>
+          <t>LOO_t-BuXPhos</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.749</v>
+        <v>0.572</v>
       </c>
       <c r="F5" t="n">
-        <v>12.346</v>
+        <v>18.414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>WLlinear_3</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>LOO_MTBD</t>
+          <t>LOO_AdBrettPhos</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>29.797</v>
+        <v>18.661</v>
       </c>
     </row>
     <row r="7">
@@ -3072,38 +2898,30 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>LOO_P2Et</t>
+          <t>LOO_XPhos</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.442</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>18.545</v>
+        <v>24.408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_4</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>LOO_BTMG</t>
+          <t>LOO_t-BuBrettPhos</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.795</v>
+        <v>0.782</v>
       </c>
       <c r="F8" t="n">
-        <v>11.172</v>
+        <v>13.387</v>
       </c>
     </row>
     <row r="9">
@@ -3112,54 +2930,54 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>LOO_MTBD</t>
+          <t>LOO_t-BuXPhos</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>23.21</v>
+        <v>15.719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>WLpolynomial_2</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>LOO_P2Et</t>
+          <t>LOO_AdBrettPhos</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.436</v>
+        <v>-0.66</v>
       </c>
       <c r="F10" t="n">
-        <v>18.644</v>
+        <v>36.566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_5</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>LOO_BTMG</t>
+          <t>LOO_XPhos</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.781</v>
+        <v>-0.024</v>
       </c>
       <c r="F11" t="n">
-        <v>11.539</v>
+        <v>17.732</v>
       </c>
     </row>
     <row r="12">
@@ -3168,14 +2986,14 @@
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>LOO_MTBD</t>
+          <t>LOO_t-BuBrettPhos</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.409</v>
+        <v>-0.548</v>
       </c>
       <c r="F12" t="n">
-        <v>23.022</v>
+        <v>35.713</v>
       </c>
     </row>
     <row r="13">
@@ -3184,21 +3002,21 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>LOO_P2Et</t>
+          <t>LOO_t-BuXPhos</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>-0.975</v>
       </c>
       <c r="F13" t="n">
-        <v>18.746</v>
+        <v>39.531</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -3208,14 +3026,14 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>LOO_BTMG</t>
+          <t>LOO_AdBrettPhos</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.68</v>
+        <v>-0.385</v>
       </c>
       <c r="F14" t="n">
-        <v>31.965</v>
+        <v>33.394</v>
       </c>
     </row>
     <row r="15">
@@ -3224,14 +3042,14 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>LOO_MTBD</t>
+          <t>LOO_XPhos</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.319</v>
+        <v>-0.09</v>
       </c>
       <c r="F15" t="n">
-        <v>45.617</v>
+        <v>18.298</v>
       </c>
     </row>
     <row r="16">
@@ -3240,54 +3058,54 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>LOO_P2Et</t>
+          <t>LOO_t-BuBrettPhos</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.374</v>
+        <v>-0.278</v>
       </c>
       <c r="F16" t="n">
-        <v>29.097</v>
+        <v>32.448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>LOO_BTMG</t>
+          <t>LOO_t-BuXPhos</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.205</v>
+        <v>-0.518</v>
       </c>
       <c r="F17" t="n">
-        <v>27.072</v>
+        <v>34.655</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_2</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>LOO_MTBD</t>
+          <t>LOO_AdBrettPhos</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.737</v>
+        <v>-0.021</v>
       </c>
       <c r="F18" t="n">
-        <v>39.473</v>
+        <v>28.675</v>
       </c>
     </row>
     <row r="19">
@@ -3296,38 +3114,30 @@
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>LOO_P2Et</t>
+          <t>LOO_XPhos</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.067</v>
+        <v>-0.798</v>
       </c>
       <c r="F19" t="n">
-        <v>25.634</v>
+        <v>23.499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>LOO_BTMG</t>
+          <t>LOO_t-BuBrettPhos</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.249</v>
+        <v>-0.078</v>
       </c>
       <c r="F20" t="n">
-        <v>27.567</v>
+        <v>29.807</v>
       </c>
     </row>
     <row r="21">
@@ -3336,54 +3146,54 @@
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>LOO_MTBD</t>
+          <t>LOO_t-BuXPhos</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.946</v>
+        <v>-0.214</v>
       </c>
       <c r="F21" t="n">
-        <v>41.785</v>
+        <v>30.991</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WLrbf_3</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>SVR - Tanimoto Kernel</t>
+        </is>
+      </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>LOO_P2Et</t>
+          <t>LOO_AdBrettPhos</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.031</v>
+        <v>-0.017</v>
       </c>
       <c r="F22" t="n">
-        <v>25.2</v>
+        <v>28.613</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>LOO_BTMG</t>
+          <t>LOO_XPhos</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.058</v>
+        <v>-1.668</v>
       </c>
       <c r="F23" t="n">
-        <v>25.365</v>
+        <v>28.626</v>
       </c>
     </row>
     <row r="24">
@@ -3392,14 +3202,14 @@
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>LOO_MTBD</t>
+          <t>LOO_t-BuBrettPhos</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.545</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>37.232</v>
+        <v>28.838</v>
       </c>
     </row>
     <row r="25">
@@ -3408,685 +3218,31 @@
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>LOO_P2Et</t>
+          <t>LOO_t-BuXPhos</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.002</v>
+        <v>-0.082</v>
       </c>
       <c r="F25" t="n">
-        <v>24.844</v>
+        <v>29.266</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="13">
     <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Descriptor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Test Set</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R-squared</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>LOO</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_2</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21.156</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.707</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17.935</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.572</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18.414</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_3</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5679999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>18.661</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>24.408</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="F8" t="n">
-        <v>13.387</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15.719</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_4</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16.673</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>-1.011</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24.854</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0.826</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11.974</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0.765</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13.65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_5</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="F14" t="n">
-        <v>15.521</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.965</v>
-      </c>
-      <c r="F15" t="n">
-        <v>24.569</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10.571</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0.788</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12.952</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_2</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.66</v>
-      </c>
-      <c r="F18" t="n">
-        <v>36.566</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="F19" t="n">
-        <v>17.732</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.548</v>
-      </c>
-      <c r="F20" t="n">
-        <v>35.713</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.975</v>
-      </c>
-      <c r="F21" t="n">
-        <v>39.531</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.385</v>
-      </c>
-      <c r="F22" t="n">
-        <v>33.394</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="F23" t="n">
-        <v>18.298</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.278</v>
-      </c>
-      <c r="F24" t="n">
-        <v>32.448</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.518</v>
-      </c>
-      <c r="F25" t="n">
-        <v>34.655</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.433</v>
-      </c>
-      <c r="F26" t="n">
-        <v>33.967</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="F27" t="n">
-        <v>17.752</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="F28" t="n">
-        <v>33.345</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>-0.611</v>
-      </c>
-      <c r="F29" t="n">
-        <v>35.701</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>LOO_AdBrettPhos</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.179</v>
-      </c>
-      <c r="F30" t="n">
-        <v>30.811</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>LOO_XPhos</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.256</v>
-      </c>
-      <c r="F31" t="n">
-        <v>19.644</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuBrettPhos</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.159</v>
-      </c>
-      <c r="F32" t="n">
-        <v>30.898</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>LOO_t-BuXPhos</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.388</v>
-      </c>
-      <c r="F33" t="n">
-        <v>33.147</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4098,7 +3254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4223,7 +3379,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -4232,23 +3388,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5173333333333333</v>
+        <v>-0.6103333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3218716100145108</v>
+        <v>0.658653424293333</v>
       </c>
       <c r="F6" t="n">
-        <v>17.565</v>
+        <v>33.38166666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>4.535787803678651</v>
+        <v>8.180799859019492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -4257,23 +3413,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.506</v>
+        <v>-0.4036666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3249723065124165</v>
+        <v>0.4342123136592666</v>
       </c>
       <c r="F7" t="n">
-        <v>17.79266666666667</v>
+        <v>31.30933333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>4.504675497006785</v>
+        <v>6.135652070752816</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -4282,23 +3438,23 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.6103333333333333</v>
+        <v>-0.1706666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.658653424293333</v>
+        <v>0.02250185177565023</v>
       </c>
       <c r="F8" t="n">
-        <v>33.38166666666667</v>
+        <v>28.767</v>
       </c>
       <c r="G8" t="n">
-        <v>8.180799859019492</v>
+        <v>3.29354413967689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -4307,23 +3463,27 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.4036666666666667</v>
+        <v>-0.134</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4342123136592666</v>
+        <v>0.03996248240537618</v>
       </c>
       <c r="F9" t="n">
-        <v>31.30933333333333</v>
+        <v>28.26766666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>6.135652070752816</v>
+        <v>2.60014236789706</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -4332,23 +3492,23 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.3496666666666666</v>
+        <v>0.5609999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3275001272264384</v>
+        <v>0.144083309234623</v>
       </c>
       <c r="F10" t="n">
-        <v>30.81933333333333</v>
+        <v>17.88975</v>
       </c>
       <c r="G10" t="n">
-        <v>5.608704068974697</v>
+        <v>3.285948911653984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -4357,27 +3517,23 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.224</v>
+        <v>0.5894999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1056598315349783</v>
+        <v>0.1156157428726729</v>
       </c>
       <c r="F11" t="n">
-        <v>29.46133333333333</v>
+        <v>17.345</v>
       </c>
       <c r="G11" t="n">
-        <v>4.24672465946797</v>
+        <v>2.631017040360375</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_2</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -4386,23 +3542,23 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5609999999999999</v>
+        <v>-0.57625</v>
       </c>
       <c r="E12" t="n">
-        <v>0.144083309234623</v>
+        <v>0.1517572074070948</v>
       </c>
       <c r="F12" t="n">
-        <v>17.88975</v>
+        <v>34.143</v>
       </c>
       <c r="G12" t="n">
-        <v>3.285948911653984</v>
+        <v>1.530393631281398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_3</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -4411,23 +3567,23 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.5894999999999999</v>
+        <v>-0.19425</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1156157428726729</v>
+        <v>0.07930689335318422</v>
       </c>
       <c r="F13" t="n">
-        <v>17.345</v>
+        <v>29.74275</v>
       </c>
       <c r="G13" t="n">
-        <v>2.631017040360375</v>
+        <v>1.308386633733827</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -4436,23 +3592,23 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6525000000000001</v>
+        <v>-0.03175</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1742077304063552</v>
+        <v>0.03159509455595916</v>
       </c>
       <c r="F14" t="n">
-        <v>15.7455</v>
+        <v>27.648</v>
       </c>
       <c r="G14" t="n">
-        <v>3.867074389423266</v>
+        <v>0.581736481006077</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -4461,124 +3617,24 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.66925</v>
+        <v>-0.009250000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1815073460405024</v>
+        <v>0.01517399090549352</v>
       </c>
       <c r="F15" t="n">
-        <v>15.295</v>
+        <v>27.3485</v>
       </c>
       <c r="G15" t="n">
-        <v>4.175153490192506</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_2</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.57625</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1517572074070948</v>
-      </c>
-      <c r="F16" t="n">
-        <v>34.143</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.530393631281398</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.19425</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.07930689335318422</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29.74275</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.308386633733827</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>-0.16075</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.07360876306527642</v>
-      </c>
-      <c r="F18" t="n">
-        <v>29.31775</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.9949845476187056</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>-0.0895</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.05464125425598013</v>
-      </c>
-      <c r="F19" t="n">
-        <v>28.40625</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.8442655091853507</v>
+        <v>0.5717426577286898</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -4590,7 +3646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4715,7 +3771,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -4724,23 +3780,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0645</v>
+        <v>-9.699</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1336431816442575</v>
+        <v>12.44932198957035</v>
       </c>
       <c r="F6" t="n">
-        <v>25.255</v>
+        <v>71.104</v>
       </c>
       <c r="G6" t="n">
-        <v>2.778929650063132</v>
+        <v>42.74460492272679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -4749,23 +3805,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.006000000000000005</v>
+        <v>-8.792</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1810193359837562</v>
+        <v>11.36603440079256</v>
       </c>
       <c r="F7" t="n">
-        <v>25.9655</v>
+        <v>68.107</v>
       </c>
       <c r="G7" t="n">
-        <v>2.35113004744527</v>
+        <v>40.6996521115353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -4774,23 +3830,23 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-9.699</v>
+        <v>-0.496</v>
       </c>
       <c r="E8" t="n">
-        <v>12.44932198957035</v>
+        <v>0.02404163056034264</v>
       </c>
       <c r="F8" t="n">
-        <v>71.104</v>
+        <v>32.1615</v>
       </c>
       <c r="G8" t="n">
-        <v>42.74460492272679</v>
+        <v>5.56422326115694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -4799,23 +3855,27 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-8.792</v>
+        <v>-0.619</v>
       </c>
       <c r="E9" t="n">
-        <v>11.36603440079256</v>
+        <v>0.2008183258569795</v>
       </c>
       <c r="F9" t="n">
-        <v>68.107</v>
+        <v>33.264</v>
       </c>
       <c r="G9" t="n">
-        <v>40.6996521115353</v>
+        <v>3.981011178080262</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>halide</t>
+        </is>
+      </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -4824,23 +3884,23 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.479</v>
+        <v>-0.273</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6194255403194157</v>
+        <v>0.9449322727052981</v>
       </c>
       <c r="F10" t="n">
-        <v>32.2525</v>
+        <v>25.08733333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>12.50659763884646</v>
+        <v>7.327903679316026</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -4849,27 +3909,23 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.3655</v>
+        <v>-0.2383333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4475985924910846</v>
+        <v>1.065454050315326</v>
       </c>
       <c r="F11" t="n">
-        <v>31</v>
+        <v>24.183</v>
       </c>
       <c r="G11" t="n">
-        <v>10.6122585720477</v>
+        <v>8.793002729443453</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>halide</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_2</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -4878,23 +3934,23 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.273</v>
+        <v>-0.9566666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9449322727052981</v>
+        <v>1.034405304188515</v>
       </c>
       <c r="F12" t="n">
-        <v>25.08733333333333</v>
+        <v>33.11966666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>7.327903679316026</v>
+        <v>11.5462328199865</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_3</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -4903,23 +3959,23 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.2383333333333333</v>
+        <v>-0.6143333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>1.065454050315326</v>
+        <v>0.5920425097350134</v>
       </c>
       <c r="F13" t="n">
-        <v>24.183</v>
+        <v>30.312</v>
       </c>
       <c r="G13" t="n">
-        <v>8.793002729443453</v>
+        <v>7.926298694851211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -4928,23 +3984,23 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.2606666666666667</v>
+        <v>-0.8176666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>1.18040049700656</v>
+        <v>0.5369891370720019</v>
       </c>
       <c r="F14" t="n">
-        <v>24.039</v>
+        <v>31.71666666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>9.679238813047233</v>
+        <v>3.274377243588976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -4953,23 +4009,27 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.2676666666666667</v>
+        <v>-0.8723333333333333</v>
       </c>
       <c r="E15" t="n">
-        <v>1.179375399664303</v>
+        <v>0.9652410752414826</v>
       </c>
       <c r="F15" t="n">
-        <v>24.11733333333333</v>
+        <v>31.48033333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>9.720008761998795</v>
+        <v>5.011026075898363</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ranking</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_2</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
@@ -4978,23 +4038,23 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.9566666666666667</v>
+        <v>0.469</v>
       </c>
       <c r="E16" t="n">
-        <v>1.034405304188515</v>
+        <v>0.1384593803250614</v>
       </c>
       <c r="F16" t="n">
-        <v>33.11966666666667</v>
+        <v>18.89766666666667</v>
       </c>
       <c r="G16" t="n">
-        <v>11.5462328199865</v>
+        <v>3.155766996046021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLlinear_3</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -5003,23 +4063,23 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.6143333333333333</v>
+        <v>0.6590000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5920425097350134</v>
+        <v>0.01212435565298215</v>
       </c>
       <c r="F17" t="n">
-        <v>30.312</v>
+        <v>15.18666666666667</v>
       </c>
       <c r="G17" t="n">
-        <v>7.926298694851211</v>
+        <v>0.5075256972147656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -5028,23 +4088,23 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.717</v>
+        <v>-23.67133333333334</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7365616063846933</v>
+        <v>39.56585793753667</v>
       </c>
       <c r="F18" t="n">
-        <v>31.19266666666667</v>
+        <v>97.66466666666666</v>
       </c>
       <c r="G18" t="n">
-        <v>9.179244213623109</v>
+        <v>108.9558646715877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -5053,27 +4113,23 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.6323333333333333</v>
+        <v>-0.2943333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3751217580110935</v>
+        <v>0.05392896562454477</v>
       </c>
       <c r="F19" t="n">
-        <v>30.48566666666666</v>
+        <v>29.603</v>
       </c>
       <c r="G19" t="n">
-        <v>5.418615167488214</v>
+        <v>1.403538741894929</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>ranking</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -5082,23 +4138,23 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.469</v>
+        <v>-0.02866666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1384593803250614</v>
+        <v>0.0211266025033211</v>
       </c>
       <c r="F20" t="n">
-        <v>18.89766666666667</v>
+        <v>26.389</v>
       </c>
       <c r="G20" t="n">
-        <v>3.155766996046021</v>
+        <v>1.095177154619287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -5107,175 +4163,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.6590000000000001</v>
+        <v>-0.022</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01212435565298215</v>
+        <v>0.03377869150810907</v>
       </c>
       <c r="F21" t="n">
-        <v>15.18666666666667</v>
+        <v>26.30133333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5075256972147656</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_4</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6576666666666666</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.00351188458428425</v>
-      </c>
-      <c r="F22" t="n">
-        <v>15.21666666666667</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.4944100861970079</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>WLlinear_5</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6503333333333333</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.04972256362390551</v>
-      </c>
-      <c r="F23" t="n">
-        <v>15.34733333333333</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.025636550310749</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_2</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-23.67133333333334</v>
-      </c>
-      <c r="E24" t="n">
-        <v>39.56585793753667</v>
-      </c>
-      <c r="F24" t="n">
-        <v>97.66466666666666</v>
-      </c>
-      <c r="G24" t="n">
-        <v>108.9558646715877</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_3</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>-0.2943333333333333</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.05392896562454477</v>
-      </c>
-      <c r="F25" t="n">
-        <v>29.603</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.403538741894929</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>-0.4080000000000001</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.03148015247739439</v>
-      </c>
-      <c r="F26" t="n">
-        <v>30.875</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.385558732064432</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>-0.1503333333333333</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0248260615751539</v>
-      </c>
-      <c r="F27" t="n">
-        <v>27.90866666666667</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.23830865834546</v>
+        <v>1.210199294882183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -5287,7 +4193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5412,7 +4318,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -5421,23 +4327,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5436666666666666</v>
+        <v>-0.791</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2184040597913265</v>
+        <v>0.4821794271845284</v>
       </c>
       <c r="F6" t="n">
-        <v>17.67533333333333</v>
+        <v>35.55966666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>6.07717840229603</v>
+        <v>8.827163832926933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -5446,23 +4352,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5399999999999999</v>
+        <v>-0.3363333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2089760751856538</v>
+        <v>0.3537814768092492</v>
       </c>
       <c r="F7" t="n">
-        <v>17.769</v>
+        <v>30.72633333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>5.803509197028982</v>
+        <v>7.608882594266607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -5471,23 +4377,23 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.791</v>
+        <v>-0.1316666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4821794271845284</v>
+        <v>0.132001262620224</v>
       </c>
       <c r="F8" t="n">
-        <v>35.55966666666666</v>
+        <v>28.248</v>
       </c>
       <c r="G8" t="n">
-        <v>8.827163832926933</v>
+        <v>4.785180874324397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -5496,73 +4402,23 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.3363333333333333</v>
+        <v>-0.1556666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3537814768092492</v>
+        <v>0.15297494348204</v>
       </c>
       <c r="F9" t="n">
-        <v>30.72633333333333</v>
+        <v>28.402</v>
       </c>
       <c r="G9" t="n">
-        <v>7.608882594266607</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.4086666666666666</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4779396754124242</v>
-      </c>
-      <c r="F10" t="n">
-        <v>31.51733333333334</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8.970474142058118</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.2016666666666667</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2986508552362329</v>
-      </c>
-      <c r="F11" t="n">
-        <v>29.147</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.006659617820748</v>
+        <v>3.384493906036765</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -5574,7 +4430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5699,7 +4555,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_4</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -5708,23 +4564,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.30875</v>
+        <v>-0.5517500000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8826741093593565</v>
+        <v>0.3955556218788958</v>
       </c>
       <c r="F6" t="n">
-        <v>16.78775</v>
+        <v>32.3855</v>
       </c>
       <c r="G6" t="n">
-        <v>5.718252085792184</v>
+        <v>9.905084031277408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLlinear_5</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -5733,23 +4589,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.347</v>
+        <v>-0.31775</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8771981912126053</v>
+        <v>0.1808062959818232</v>
       </c>
       <c r="F7" t="n">
-        <v>15.90325</v>
+        <v>29.69875</v>
       </c>
       <c r="G7" t="n">
-        <v>6.120569274993952</v>
+        <v>7.654078711162218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLrbf_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -5758,23 +4614,23 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.5517500000000001</v>
+        <v>-0.27775</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3955556218788958</v>
+        <v>0.3561576196012098</v>
       </c>
       <c r="F8" t="n">
-        <v>32.3855</v>
+        <v>28.243</v>
       </c>
       <c r="G8" t="n">
-        <v>9.905084031277408</v>
+        <v>3.300997828940011</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLrbf_3</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -5783,73 +4639,23 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.31775</v>
+        <v>-0.444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1808062959818232</v>
+        <v>0.816654557733358</v>
       </c>
       <c r="F9" t="n">
-        <v>29.69875</v>
+        <v>28.83575</v>
       </c>
       <c r="G9" t="n">
-        <v>7.654078711162218</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_4</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.355</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2448713948177696</v>
-      </c>
-      <c r="F10" t="n">
-        <v>30.19125</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8.352538790691126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>WLpolynomial_5</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>SVR - Tanimoto Kernel</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.2455</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1037962748207597</v>
-      </c>
-      <c r="F11" t="n">
-        <v>28.625</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.084186332890646</v>
+        <v>0.304812920767257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/yield_prediction/results/out_of_sample_results.xlsx
+++ b/yield_prediction/results/out_of_sample_results.xlsx
@@ -635,7 +635,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.536</v>
+        <v>0.666</v>
       </c>
       <c r="F8" t="n">
-        <v>36.942</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.008</v>
+        <v>0.148</v>
       </c>
       <c r="F9" t="n">
-        <v>24.024</v>
+        <v>22.259</v>
       </c>
     </row>
     <row r="10">
@@ -681,17 +681,17 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-1.303</v>
+        <v>0.738</v>
       </c>
       <c r="F10" t="n">
-        <v>39.179</v>
+        <v>13.206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.33</v>
+        <v>0.48</v>
       </c>
       <c r="F11" t="n">
-        <v>34.375</v>
+        <v>21.497</v>
       </c>
     </row>
     <row r="12">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.011</v>
+        <v>0.051</v>
       </c>
       <c r="F12" t="n">
-        <v>24.245</v>
+        <v>23.497</v>
       </c>
     </row>
     <row r="13">
@@ -737,17 +737,17 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.87</v>
+        <v>0.623</v>
       </c>
       <c r="F13" t="n">
-        <v>35.308</v>
+        <v>15.856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.187</v>
+        <v>0.647</v>
       </c>
       <c r="F14" t="n">
-        <v>32.48</v>
+        <v>17.699</v>
       </c>
     </row>
     <row r="15">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.18</v>
+        <v>0.14</v>
       </c>
       <c r="F15" t="n">
-        <v>26.198</v>
+        <v>22.362</v>
       </c>
     </row>
     <row r="16">
@@ -793,17 +793,17 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.145</v>
+        <v>0.715</v>
       </c>
       <c r="F16" t="n">
-        <v>27.623</v>
+        <v>13.774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.091</v>
+        <v>0.656</v>
       </c>
       <c r="F17" t="n">
-        <v>31.144</v>
+        <v>17.489</v>
       </c>
     </row>
     <row r="18">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.17</v>
+        <v>0.145</v>
       </c>
       <c r="F18" t="n">
-        <v>26.084</v>
+        <v>22.296</v>
       </c>
     </row>
     <row r="19">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.141</v>
+        <v>0.73</v>
       </c>
       <c r="F19" t="n">
-        <v>27.575</v>
+        <v>13.404</v>
       </c>
     </row>
     <row r="20">
@@ -1007,7 +1007,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.535</v>
+        <v>0.397</v>
       </c>
       <c r="F28" t="n">
-        <v>33.839</v>
+        <v>21.211</v>
       </c>
     </row>
     <row r="29">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.531</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>34.764</v>
+        <v>15.755</v>
       </c>
     </row>
     <row r="30">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.444</v>
+        <v>0.763</v>
       </c>
       <c r="F30" t="n">
-        <v>32.182</v>
+        <v>13.048</v>
       </c>
     </row>
     <row r="31">
@@ -1069,17 +1069,17 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.795</v>
+        <v>0.764</v>
       </c>
       <c r="F31" t="n">
-        <v>35.787</v>
+        <v>12.968</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.116</v>
+        <v>0.433</v>
       </c>
       <c r="F32" t="n">
-        <v>28.856</v>
+        <v>20.567</v>
       </c>
     </row>
     <row r="33">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.25</v>
+        <v>0.222</v>
       </c>
       <c r="F33" t="n">
-        <v>31.411</v>
+        <v>24.774</v>
       </c>
     </row>
     <row r="34">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.137</v>
+        <v>0.743</v>
       </c>
       <c r="F34" t="n">
-        <v>28.558</v>
+        <v>13.587</v>
       </c>
     </row>
     <row r="35">
@@ -1141,17 +1141,17 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.274</v>
+        <v>0.595</v>
       </c>
       <c r="F35" t="n">
-        <v>30.146</v>
+        <v>16.995</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.001</v>
+        <v>0.446</v>
       </c>
       <c r="F36" t="n">
-        <v>27.329</v>
+        <v>20.332</v>
       </c>
     </row>
     <row r="37">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.025</v>
+        <v>0.665</v>
       </c>
       <c r="F37" t="n">
-        <v>28.439</v>
+        <v>16.254</v>
       </c>
     </row>
     <row r="38">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.025</v>
+        <v>0.724</v>
       </c>
       <c r="F38" t="n">
-        <v>27.115</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="39">
@@ -1213,17 +1213,17 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-0.076</v>
+        <v>0.732</v>
       </c>
       <c r="F39" t="n">
-        <v>27.709</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.002</v>
+        <v>0.4</v>
       </c>
       <c r="F40" t="n">
-        <v>27.344</v>
+        <v>21.161</v>
       </c>
     </row>
     <row r="41">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>28.11</v>
+        <v>15.603</v>
       </c>
     </row>
     <row r="42">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.032</v>
+        <v>0.781</v>
       </c>
       <c r="F42" t="n">
-        <v>27.209</v>
+        <v>12.527</v>
       </c>
     </row>
     <row r="43">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.002</v>
+        <v>0.786</v>
       </c>
       <c r="F43" t="n">
-        <v>26.731</v>
+        <v>12.357</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1458,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-18.502</v>
+        <v>-0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>101.329</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="7">
@@ -1488,17 +1488,17 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.896</v>
+        <v>0.159</v>
       </c>
       <c r="F7" t="n">
-        <v>40.879</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-16.829</v>
+        <v>-0.404</v>
       </c>
       <c r="F8" t="n">
-        <v>96.886</v>
+        <v>27.193</v>
       </c>
     </row>
     <row r="9">
@@ -1528,17 +1528,17 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.755</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>39.328</v>
+        <v>28.416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -1552,10 +1552,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.513</v>
+        <v>0.207</v>
       </c>
       <c r="F10" t="n">
-        <v>28.227</v>
+        <v>20.433</v>
       </c>
     </row>
     <row r="11">
@@ -1568,17 +1568,17 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.479</v>
+        <v>0.138</v>
       </c>
       <c r="F11" t="n">
-        <v>36.096</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.761</v>
+        <v>0.052</v>
       </c>
       <c r="F12" t="n">
-        <v>30.449</v>
+        <v>22.337</v>
       </c>
     </row>
     <row r="13">
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.477</v>
+        <v>0.034</v>
       </c>
       <c r="F13" t="n">
-        <v>36.079</v>
+        <v>29.172</v>
       </c>
     </row>
     <row r="14">
@@ -1734,7 +1734,7 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.8139999999999999</v>
+        <v>0.658</v>
       </c>
       <c r="F20" t="n">
-        <v>33.983</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="21">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.001</v>
+        <v>-1.592</v>
       </c>
       <c r="F21" t="n">
-        <v>21.166</v>
+        <v>34.067</v>
       </c>
     </row>
     <row r="22">
@@ -1780,17 +1780,17 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-2.055</v>
+        <v>0.152</v>
       </c>
       <c r="F22" t="n">
-        <v>44.21</v>
+        <v>23.299</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.48</v>
+        <v>0.554</v>
       </c>
       <c r="F23" t="n">
-        <v>30.691</v>
+        <v>16.854</v>
       </c>
     </row>
     <row r="24">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.101</v>
+        <v>-1.456</v>
       </c>
       <c r="F24" t="n">
-        <v>22.203</v>
+        <v>33.156</v>
       </c>
     </row>
     <row r="25">
@@ -1836,17 +1836,17 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1.262</v>
+        <v>-0.022</v>
       </c>
       <c r="F25" t="n">
-        <v>38.042</v>
+        <v>25.577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.251</v>
+        <v>0.654</v>
       </c>
       <c r="F26" t="n">
-        <v>28.219</v>
+        <v>14.842</v>
       </c>
     </row>
     <row r="27">
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-1.319</v>
+        <v>-1.476</v>
       </c>
       <c r="F27" t="n">
-        <v>32.222</v>
+        <v>33.297</v>
       </c>
     </row>
     <row r="28">
@@ -1892,17 +1892,17 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.883</v>
+        <v>0.149</v>
       </c>
       <c r="F28" t="n">
-        <v>34.709</v>
+        <v>23.341</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.09</v>
+        <v>0.643</v>
       </c>
       <c r="F29" t="n">
-        <v>26.339</v>
+        <v>15.072</v>
       </c>
     </row>
     <row r="30">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-1.951</v>
+        <v>-1.442</v>
       </c>
       <c r="F30" t="n">
-        <v>36.35</v>
+        <v>33.066</v>
       </c>
     </row>
     <row r="31">
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.576</v>
+        <v>0.101</v>
       </c>
       <c r="F31" t="n">
-        <v>31.752</v>
+        <v>23.987</v>
       </c>
     </row>
     <row r="32">
@@ -2074,7 +2074,7 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -2088,10 +2088,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.769</v>
+        <v>0.654</v>
       </c>
       <c r="F38" t="n">
-        <v>33.137</v>
+        <v>14.646</v>
       </c>
     </row>
     <row r="39">
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-69.358</v>
+        <v>0.661</v>
       </c>
       <c r="F39" t="n">
-        <v>223.462</v>
+        <v>15.516</v>
       </c>
     </row>
     <row r="40">
@@ -2120,17 +2120,17 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.887</v>
+        <v>0.658</v>
       </c>
       <c r="F40" t="n">
-        <v>36.395</v>
+        <v>15.488</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.271</v>
+        <v>0.656</v>
       </c>
       <c r="F41" t="n">
-        <v>28.088</v>
+        <v>14.605</v>
       </c>
     </row>
     <row r="42">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.256</v>
+        <v>0.434</v>
       </c>
       <c r="F42" t="n">
-        <v>29.862</v>
+        <v>20.039</v>
       </c>
     </row>
     <row r="43">
@@ -2176,17 +2176,17 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.356</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>30.859</v>
+        <v>25.317</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-0.018</v>
+        <v>0.652</v>
       </c>
       <c r="F44" t="n">
-        <v>25.14</v>
+        <v>14.708</v>
       </c>
     </row>
     <row r="45">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-0.015</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>26.842</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="46">
@@ -2232,17 +2232,17 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.053</v>
+        <v>0.655</v>
       </c>
       <c r="F46" t="n">
-        <v>27.185</v>
+        <v>15.554</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
@@ -2256,10 +2256,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.003</v>
+        <v>0.653</v>
       </c>
       <c r="F47" t="n">
-        <v>24.951</v>
+        <v>14.684</v>
       </c>
     </row>
     <row r="48">
@@ -2272,10 +2272,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-0.002</v>
+        <v>0.667</v>
       </c>
       <c r="F48" t="n">
-        <v>26.665</v>
+        <v>15.373</v>
       </c>
     </row>
     <row r="49">
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-0.061</v>
+        <v>0.638</v>
       </c>
       <c r="F49" t="n">
-        <v>27.288</v>
+        <v>15.932</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2506,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.68</v>
+        <v>0.795</v>
       </c>
       <c r="F8" t="n">
-        <v>31.965</v>
+        <v>11.172</v>
       </c>
     </row>
     <row r="9">
@@ -2536,10 +2536,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1.319</v>
+        <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>45.617</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="10">
@@ -2552,17 +2552,17 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.374</v>
+        <v>0.436</v>
       </c>
       <c r="F10" t="n">
-        <v>29.097</v>
+        <v>18.644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -2576,10 +2576,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.205</v>
+        <v>0.754</v>
       </c>
       <c r="F11" t="n">
-        <v>27.072</v>
+        <v>12.244</v>
       </c>
     </row>
     <row r="12">
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.737</v>
+        <v>0.048</v>
       </c>
       <c r="F12" t="n">
-        <v>39.473</v>
+        <v>29.227</v>
       </c>
     </row>
     <row r="13">
@@ -2608,17 +2608,17 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.067</v>
+        <v>0.487</v>
       </c>
       <c r="F13" t="n">
-        <v>25.634</v>
+        <v>17.778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.771</v>
       </c>
       <c r="F14" t="n">
-        <v>24.664</v>
+        <v>11.807</v>
       </c>
     </row>
     <row r="15">
@@ -2648,10 +2648,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.264</v>
+        <v>0.198</v>
       </c>
       <c r="F15" t="n">
-        <v>33.682</v>
+        <v>26.819</v>
       </c>
     </row>
     <row r="16">
@@ -2664,17 +2664,17 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.131</v>
+        <v>0.415</v>
       </c>
       <c r="F16" t="n">
-        <v>26.398</v>
+        <v>18.976</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.023</v>
+        <v>0.696</v>
       </c>
       <c r="F17" t="n">
-        <v>24.945</v>
+        <v>13.587</v>
       </c>
     </row>
     <row r="18">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.121</v>
+        <v>0.199</v>
       </c>
       <c r="F18" t="n">
-        <v>31.709</v>
+        <v>26.816</v>
       </c>
     </row>
     <row r="19">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.323</v>
+        <v>0.341</v>
       </c>
       <c r="F19" t="n">
-        <v>28.552</v>
+        <v>20.143</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +2944,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -2958,10 +2958,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.66</v>
+        <v>0.655</v>
       </c>
       <c r="F10" t="n">
-        <v>36.566</v>
+        <v>16.673</v>
       </c>
     </row>
     <row r="11">
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.024</v>
+        <v>-1.011</v>
       </c>
       <c r="F11" t="n">
-        <v>17.732</v>
+        <v>24.854</v>
       </c>
     </row>
     <row r="12">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.548</v>
+        <v>0.826</v>
       </c>
       <c r="F12" t="n">
-        <v>35.713</v>
+        <v>11.974</v>
       </c>
     </row>
     <row r="13">
@@ -3006,17 +3006,17 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.975</v>
+        <v>0.765</v>
       </c>
       <c r="F13" t="n">
-        <v>39.531</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -3030,10 +3030,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.385</v>
+        <v>0.496</v>
       </c>
       <c r="F14" t="n">
-        <v>33.394</v>
+        <v>20.147</v>
       </c>
     </row>
     <row r="15">
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.09</v>
+        <v>-0.726</v>
       </c>
       <c r="F15" t="n">
-        <v>18.298</v>
+        <v>23.026</v>
       </c>
     </row>
     <row r="16">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.278</v>
+        <v>0.668</v>
       </c>
       <c r="F16" t="n">
-        <v>32.448</v>
+        <v>16.545</v>
       </c>
     </row>
     <row r="17">
@@ -3078,17 +3078,17 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.518</v>
+        <v>0.638</v>
       </c>
       <c r="F17" t="n">
-        <v>34.655</v>
+        <v>16.929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -3102,10 +3102,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.021</v>
+        <v>0.639</v>
       </c>
       <c r="F18" t="n">
-        <v>28.675</v>
+        <v>17.057</v>
       </c>
     </row>
     <row r="19">
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.798</v>
+        <v>-0.912</v>
       </c>
       <c r="F19" t="n">
-        <v>23.499</v>
+        <v>24.236</v>
       </c>
     </row>
     <row r="20">
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.078</v>
+        <v>0.834</v>
       </c>
       <c r="F20" t="n">
-        <v>29.807</v>
+        <v>11.707</v>
       </c>
     </row>
     <row r="21">
@@ -3150,17 +3150,17 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.214</v>
+        <v>0.759</v>
       </c>
       <c r="F21" t="n">
-        <v>30.991</v>
+        <v>13.817</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -3174,10 +3174,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.017</v>
+        <v>0.676</v>
       </c>
       <c r="F22" t="n">
-        <v>28.613</v>
+        <v>16.164</v>
       </c>
     </row>
     <row r="23">
@@ -3190,10 +3190,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.668</v>
+        <v>-0.873</v>
       </c>
       <c r="F23" t="n">
-        <v>28.626</v>
+        <v>23.985</v>
       </c>
     </row>
     <row r="24">
@@ -3206,10 +3206,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="F24" t="n">
-        <v>28.838</v>
+        <v>10.702</v>
       </c>
     </row>
     <row r="25">
@@ -3222,10 +3222,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.082</v>
+        <v>0.79</v>
       </c>
       <c r="F25" t="n">
-        <v>29.266</v>
+        <v>12.889</v>
       </c>
     </row>
   </sheetData>
@@ -3379,7 +3379,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -3388,23 +3388,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.6103333333333333</v>
+        <v>0.5173333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.658653424293333</v>
+        <v>0.3218716100145108</v>
       </c>
       <c r="F6" t="n">
-        <v>33.38166666666667</v>
+        <v>17.565</v>
       </c>
       <c r="G6" t="n">
-        <v>8.180799859019492</v>
+        <v>4.535787803678651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -3413,23 +3413,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.4036666666666667</v>
+        <v>0.3846666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4342123136592666</v>
+        <v>0.297678237923657</v>
       </c>
       <c r="F7" t="n">
-        <v>31.30933333333333</v>
+        <v>20.28333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>6.135652070752816</v>
+        <v>3.962443732513224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -3438,23 +3438,23 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.1706666666666667</v>
+        <v>0.5006666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02250185177565023</v>
+        <v>0.3141915551591629</v>
       </c>
       <c r="F8" t="n">
-        <v>28.767</v>
+        <v>17.945</v>
       </c>
       <c r="G8" t="n">
-        <v>3.29354413967689</v>
+        <v>4.29928168418865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.134</v>
+        <v>0.5103333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03996248240537618</v>
+        <v>0.3185440838146791</v>
       </c>
       <c r="F9" t="n">
-        <v>28.26766666666667</v>
+        <v>17.72966666666666</v>
       </c>
       <c r="G9" t="n">
-        <v>2.60014236789706</v>
+        <v>4.450882646547011</v>
       </c>
     </row>
     <row r="10">
@@ -3533,7 +3533,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -3542,23 +3542,23 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.57625</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1517572074070948</v>
+        <v>0.1742077304063552</v>
       </c>
       <c r="F12" t="n">
-        <v>34.143</v>
+        <v>15.7455</v>
       </c>
       <c r="G12" t="n">
-        <v>1.530393631281398</v>
+        <v>3.867074389423266</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -3567,23 +3567,23 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.19425</v>
+        <v>0.49825</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07930689335318422</v>
+        <v>0.2234835937304273</v>
       </c>
       <c r="F13" t="n">
-        <v>29.74275</v>
+        <v>18.98075</v>
       </c>
       <c r="G13" t="n">
-        <v>1.308386633733827</v>
+        <v>4.799780437686708</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -3592,23 +3592,23 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.03175</v>
+        <v>0.64175</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03159509455595916</v>
+        <v>0.1338764978129719</v>
       </c>
       <c r="F14" t="n">
-        <v>27.648</v>
+        <v>16.1215</v>
       </c>
       <c r="G14" t="n">
-        <v>0.581736481006077</v>
+        <v>3.011394527457337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -3617,16 +3617,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.009250000000000001</v>
+        <v>0.6647500000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01517399090549352</v>
+        <v>0.1817055768727715</v>
       </c>
       <c r="F15" t="n">
-        <v>27.3485</v>
+        <v>15.412</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5717426577286898</v>
+        <v>4.112733559730479</v>
       </c>
     </row>
   </sheetData>
@@ -3771,7 +3771,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -3780,23 +3780,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-9.699</v>
+        <v>0.0645</v>
       </c>
       <c r="E6" t="n">
-        <v>12.44932198957035</v>
+        <v>0.1336431816442575</v>
       </c>
       <c r="F6" t="n">
-        <v>71.104</v>
+        <v>25.255</v>
       </c>
       <c r="G6" t="n">
-        <v>42.74460492272679</v>
+        <v>2.778929650063132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -3805,23 +3805,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-8.792</v>
+        <v>-0.16</v>
       </c>
       <c r="E7" t="n">
-        <v>11.36603440079256</v>
+        <v>0.3450681092190352</v>
       </c>
       <c r="F7" t="n">
-        <v>68.107</v>
+        <v>27.8045</v>
       </c>
       <c r="G7" t="n">
-        <v>40.6996521115353</v>
+        <v>0.8647915933911469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -3830,23 +3830,23 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.496</v>
+        <v>0.1725</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02404163056034264</v>
+        <v>0.04879036790187177</v>
       </c>
       <c r="F8" t="n">
-        <v>32.1615</v>
+        <v>23.9965</v>
       </c>
       <c r="G8" t="n">
-        <v>5.56422326115694</v>
+        <v>5.039550029516524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -3855,16 +3855,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.619</v>
+        <v>0.043</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2008183258569795</v>
+        <v>0.01272792206135785</v>
       </c>
       <c r="F9" t="n">
-        <v>33.264</v>
+        <v>25.7545</v>
       </c>
       <c r="G9" t="n">
-        <v>3.981011178080262</v>
+        <v>4.833074849410053</v>
       </c>
     </row>
     <row r="10">
@@ -3925,7 +3925,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -3934,23 +3934,23 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.9566666666666667</v>
+        <v>-0.2606666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>1.034405304188515</v>
+        <v>1.18040049700656</v>
       </c>
       <c r="F12" t="n">
-        <v>33.11966666666667</v>
+        <v>24.039</v>
       </c>
       <c r="G12" t="n">
-        <v>11.5462328199865</v>
+        <v>9.679238813047233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -3959,23 +3959,23 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.6143333333333333</v>
+        <v>-0.308</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5920425097350134</v>
+        <v>1.035071012056661</v>
       </c>
       <c r="F13" t="n">
-        <v>30.312</v>
+        <v>25.19566666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>7.926298694851211</v>
+        <v>8.157687315246481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -3984,23 +3984,23 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.8176666666666667</v>
+        <v>-0.2243333333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5369891370720019</v>
+        <v>1.112995208135836</v>
       </c>
       <c r="F14" t="n">
-        <v>31.71666666666667</v>
+        <v>23.82666666666666</v>
       </c>
       <c r="G14" t="n">
-        <v>3.274377243588976</v>
+        <v>9.237080725712712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.8723333333333333</v>
+        <v>-0.2326666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9652410752414826</v>
+        <v>1.081806976005116</v>
       </c>
       <c r="F15" t="n">
-        <v>31.48033333333333</v>
+        <v>24.04166666666667</v>
       </c>
       <c r="G15" t="n">
-        <v>5.011026075898363</v>
+        <v>8.997124559176301</v>
       </c>
     </row>
     <row r="16">
@@ -4079,7 +4079,7 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -4088,23 +4088,23 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-23.67133333333334</v>
+        <v>0.6576666666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>39.56585793753667</v>
+        <v>0.00351188458428425</v>
       </c>
       <c r="F18" t="n">
-        <v>97.66466666666666</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>108.9558646715877</v>
+        <v>0.4944100861970079</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -4113,23 +4113,23 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.2943333333333333</v>
+        <v>0.3923333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05392896562454477</v>
+        <v>0.2867792414616744</v>
       </c>
       <c r="F19" t="n">
-        <v>29.603</v>
+        <v>19.987</v>
       </c>
       <c r="G19" t="n">
-        <v>1.403538741894929</v>
+        <v>5.356189317042481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -4138,23 +4138,23 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.02866666666666667</v>
+        <v>0.6636666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0211266025033211</v>
+        <v>0.01767295485574876</v>
       </c>
       <c r="F20" t="n">
-        <v>26.389</v>
+        <v>15.08066666666667</v>
       </c>
       <c r="G20" t="n">
-        <v>1.095177154619287</v>
+        <v>0.4318904182004196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -4163,16 +4163,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.022</v>
+        <v>0.6526666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03377869150810907</v>
+        <v>0.01450287327853807</v>
       </c>
       <c r="F21" t="n">
-        <v>26.30133333333333</v>
+        <v>15.32966666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>1.210199294882183</v>
+        <v>0.6251274536711166</v>
       </c>
     </row>
   </sheetData>
@@ -4318,7 +4318,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -4327,23 +4327,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.791</v>
+        <v>0.5436666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4821794271845284</v>
+        <v>0.2184040597913265</v>
       </c>
       <c r="F6" t="n">
-        <v>35.55966666666666</v>
+        <v>17.67533333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>8.827163832926933</v>
+        <v>6.07717840229603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -4352,23 +4352,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3363333333333333</v>
+        <v>0.4296666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3537814768092492</v>
+        <v>0.3564748705495709</v>
       </c>
       <c r="F7" t="n">
-        <v>30.72633333333333</v>
+        <v>19.74966666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>7.608882594266607</v>
+        <v>8.661476452276098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -4377,23 +4377,23 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.1316666666666667</v>
+        <v>0.4613333333333334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.132001262620224</v>
+        <v>0.2892962725880396</v>
       </c>
       <c r="F8" t="n">
-        <v>28.248</v>
+        <v>19.20066666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>4.785180874324397</v>
+        <v>7.508521314701938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -4402,16 +4402,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1556666666666666</v>
+        <v>0.412</v>
       </c>
       <c r="E9" t="n">
-        <v>0.15297494348204</v>
+        <v>0.2559941405579432</v>
       </c>
       <c r="F9" t="n">
-        <v>28.402</v>
+        <v>20.182</v>
       </c>
       <c r="G9" t="n">
-        <v>3.384493906036765</v>
+        <v>6.614586230445559</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4555,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_2</t>
+          <t>WLlinear_4</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -4564,23 +4564,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.5517500000000001</v>
+        <v>0.30875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3955556218788958</v>
+        <v>0.8826741093593565</v>
       </c>
       <c r="F6" t="n">
-        <v>32.3855</v>
+        <v>16.78775</v>
       </c>
       <c r="G6" t="n">
-        <v>9.905084031277408</v>
+        <v>5.718252085792184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>WLpolynomial_3</t>
+          <t>WLpolynomial_2</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -4589,23 +4589,23 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.31775</v>
+        <v>0.269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1808062959818232</v>
+        <v>0.6675617324762307</v>
       </c>
       <c r="F7" t="n">
-        <v>29.69875</v>
+        <v>19.16175</v>
       </c>
       <c r="G7" t="n">
-        <v>7.654078711162218</v>
+        <v>3.04059746047823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_2</t>
+          <t>WLpolynomial_3</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -4614,23 +4614,23 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.27775</v>
+        <v>0.33</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3561576196012098</v>
+        <v>0.8318858094714683</v>
       </c>
       <c r="F8" t="n">
-        <v>28.243</v>
+        <v>16.70425</v>
       </c>
       <c r="G8" t="n">
-        <v>3.300997828940011</v>
+        <v>5.482104545701405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>WLrbf_3</t>
+          <t>WLpolynomial_4</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -4639,16 +4639,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.444</v>
+        <v>0.3635</v>
       </c>
       <c r="E9" t="n">
-        <v>0.816654557733358</v>
+        <v>0.8278480134259749</v>
       </c>
       <c r="F9" t="n">
-        <v>28.83575</v>
+        <v>15.935</v>
       </c>
       <c r="G9" t="n">
-        <v>0.304812920767257</v>
+        <v>5.817139789736304</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/out_of_sample_results.xlsx
+++ b/yield_prediction/results/out_of_sample_results.xlsx
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.615</v>
+        <v>0.647</v>
       </c>
       <c r="F14" t="n">
-        <v>18.501</v>
+        <v>17.699</v>
       </c>
     </row>
     <row r="15">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="F15" t="n">
-        <v>22.382</v>
+        <v>22.362</v>
       </c>
     </row>
     <row r="16">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.636</v>
+        <v>0.715</v>
       </c>
       <c r="F16" t="n">
-        <v>15.568</v>
+        <v>13.774</v>
       </c>
     </row>
     <row r="17">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.601</v>
+        <v>0.656</v>
       </c>
       <c r="F17" t="n">
-        <v>18.838</v>
+        <v>17.489</v>
       </c>
     </row>
     <row r="18">
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.173</v>
+        <v>0.145</v>
       </c>
       <c r="F18" t="n">
-        <v>21.932</v>
+        <v>22.296</v>
       </c>
     </row>
     <row r="19">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.668</v>
+        <v>0.73</v>
       </c>
       <c r="F19" t="n">
-        <v>14.882</v>
+        <v>13.404</v>
       </c>
     </row>
     <row r="20">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.524</v>
+        <v>0.638</v>
       </c>
       <c r="F20" t="n">
-        <v>20.573</v>
+        <v>17.934</v>
       </c>
     </row>
     <row r="21">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.144</v>
+        <v>0.152</v>
       </c>
       <c r="F21" t="n">
-        <v>22.314</v>
+        <v>22.205</v>
       </c>
     </row>
     <row r="22">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.617</v>
+        <v>0.716</v>
       </c>
       <c r="F22" t="n">
-        <v>15.987</v>
+        <v>13.759</v>
       </c>
     </row>
     <row r="23">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.44</v>
+        <v>0.613</v>
       </c>
       <c r="F23" t="n">
-        <v>22.306</v>
+        <v>18.541</v>
       </c>
     </row>
     <row r="24">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.083</v>
+        <v>0.152</v>
       </c>
       <c r="F24" t="n">
-        <v>23.093</v>
+        <v>22.205</v>
       </c>
     </row>
     <row r="25">
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.55</v>
+        <v>0.711</v>
       </c>
       <c r="F25" t="n">
-        <v>17.329</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="26">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.384</v>
+        <v>0.446</v>
       </c>
       <c r="F90" t="n">
-        <v>21.448</v>
+        <v>20.332</v>
       </c>
     </row>
     <row r="91">
@@ -2189,10 +2189,10 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.659</v>
+        <v>0.665</v>
       </c>
       <c r="F91" t="n">
-        <v>16.4</v>
+        <v>16.254</v>
       </c>
     </row>
     <row r="92">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.76</v>
+        <v>0.724</v>
       </c>
       <c r="F92" t="n">
-        <v>13.123</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="93">
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.739</v>
+        <v>0.732</v>
       </c>
       <c r="F93" t="n">
-        <v>13.645</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="94">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.424</v>
+        <v>0.4</v>
       </c>
       <c r="F94" t="n">
-        <v>20.734</v>
+        <v>21.161</v>
       </c>
     </row>
     <row r="95">
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.624</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>17.221</v>
+        <v>15.603</v>
       </c>
     </row>
     <row r="96">
@@ -2277,10 +2277,10 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.704</v>
+        <v>0.781</v>
       </c>
       <c r="F96" t="n">
-        <v>14.563</v>
+        <v>12.527</v>
       </c>
     </row>
     <row r="97">
@@ -2293,10 +2293,10 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.764</v>
+        <v>0.786</v>
       </c>
       <c r="F97" t="n">
-        <v>12.98</v>
+        <v>12.357</v>
       </c>
     </row>
     <row r="98">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.433</v>
+        <v>0.408</v>
       </c>
       <c r="F98" t="n">
-        <v>20.572</v>
+        <v>21.019</v>
       </c>
     </row>
     <row r="99">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.556</v>
+        <v>0.665</v>
       </c>
       <c r="F99" t="n">
-        <v>18.723</v>
+        <v>16.263</v>
       </c>
     </row>
     <row r="100">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.616</v>
+        <v>0.766</v>
       </c>
       <c r="F100" t="n">
-        <v>16.592</v>
+        <v>12.945</v>
       </c>
     </row>
     <row r="101">
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.696</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>14.72</v>
+        <v>11.709</v>
       </c>
     </row>
     <row r="102">
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.433</v>
+        <v>0.442</v>
       </c>
       <c r="F102" t="n">
-        <v>20.562</v>
+        <v>20.411</v>
       </c>
     </row>
     <row r="103">
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.497</v>
+        <v>0.648</v>
       </c>
       <c r="F103" t="n">
-        <v>19.93</v>
+        <v>16.666</v>
       </c>
     </row>
     <row r="104">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.523</v>
+        <v>0.747</v>
       </c>
       <c r="F104" t="n">
-        <v>18.497</v>
+        <v>13.457</v>
       </c>
     </row>
     <row r="105">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.602</v>
+        <v>0.797</v>
       </c>
       <c r="F105" t="n">
-        <v>16.844</v>
+        <v>12.032</v>
       </c>
     </row>
     <row r="106">
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.18</v>
+        <v>0.207</v>
       </c>
       <c r="F10" t="n">
-        <v>20.78</v>
+        <v>20.433</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.079</v>
+        <v>0.138</v>
       </c>
       <c r="F11" t="n">
-        <v>30.837</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="12">
@@ -3968,10 +3968,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.052</v>
       </c>
       <c r="F12" t="n">
-        <v>23.048</v>
+        <v>22.337</v>
       </c>
     </row>
     <row r="13">
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.185</v>
+        <v>0.034</v>
       </c>
       <c r="F13" t="n">
-        <v>32.31</v>
+        <v>29.172</v>
       </c>
     </row>
     <row r="14">
@@ -4008,10 +4008,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.153</v>
+        <v>-0.043</v>
       </c>
       <c r="F14" t="n">
-        <v>24.635</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="15">
@@ -4024,10 +4024,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.247</v>
+        <v>-0.01</v>
       </c>
       <c r="F15" t="n">
-        <v>33.15</v>
+        <v>29.839</v>
       </c>
     </row>
     <row r="16">
@@ -4048,10 +4048,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.28</v>
+        <v>-0.109</v>
       </c>
       <c r="F16" t="n">
-        <v>25.961</v>
+        <v>24.158</v>
       </c>
     </row>
     <row r="17">
@@ -4064,10 +4064,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.279</v>
+        <v>-0.039</v>
       </c>
       <c r="F17" t="n">
-        <v>33.573</v>
+        <v>30.255</v>
       </c>
     </row>
     <row r="18">
@@ -4956,10 +4956,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.576</v>
+        <v>0.654</v>
       </c>
       <c r="F62" t="n">
-        <v>16.429</v>
+        <v>14.842</v>
       </c>
     </row>
     <row r="63">
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-1.223</v>
+        <v>-1.476</v>
       </c>
       <c r="F63" t="n">
-        <v>31.546</v>
+        <v>33.297</v>
       </c>
     </row>
     <row r="64">
@@ -4988,10 +4988,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.019</v>
+        <v>0.149</v>
       </c>
       <c r="F64" t="n">
-        <v>25.058</v>
+        <v>23.341</v>
       </c>
     </row>
     <row r="65">
@@ -5012,10 +5012,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.441</v>
+        <v>0.643</v>
       </c>
       <c r="F65" t="n">
-        <v>18.86</v>
+        <v>15.072</v>
       </c>
     </row>
     <row r="66">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1.151</v>
+        <v>-1.442</v>
       </c>
       <c r="F66" t="n">
-        <v>31.035</v>
+        <v>33.066</v>
       </c>
     </row>
     <row r="67">
@@ -5044,10 +5044,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-0.117</v>
+        <v>0.101</v>
       </c>
       <c r="F67" t="n">
-        <v>26.732</v>
+        <v>23.987</v>
       </c>
     </row>
     <row r="68">
@@ -5068,10 +5068,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.307</v>
+        <v>0.59</v>
       </c>
       <c r="F68" t="n">
-        <v>21.008</v>
+        <v>16.159</v>
       </c>
     </row>
     <row r="69">
@@ -5084,10 +5084,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-1.169</v>
+        <v>-1.419</v>
       </c>
       <c r="F69" t="n">
-        <v>31.158</v>
+        <v>32.906</v>
       </c>
     </row>
     <row r="70">
@@ -5100,10 +5100,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-0.241</v>
+        <v>0.048</v>
       </c>
       <c r="F70" t="n">
-        <v>28.181</v>
+        <v>24.685</v>
       </c>
     </row>
     <row r="71">
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.2</v>
+        <v>0.543</v>
       </c>
       <c r="F71" t="n">
-        <v>22.566</v>
+        <v>17.062</v>
       </c>
     </row>
     <row r="72">
@@ -5140,10 +5140,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1.235</v>
+        <v>-1.402</v>
       </c>
       <c r="F72" t="n">
-        <v>31.63</v>
+        <v>32.791</v>
       </c>
     </row>
     <row r="73">
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-0.326</v>
+        <v>0.013</v>
       </c>
       <c r="F73" t="n">
-        <v>29.123</v>
+        <v>25.129</v>
       </c>
     </row>
     <row r="74">
@@ -6304,10 +6304,10 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.665</v>
+        <v>0.652</v>
       </c>
       <c r="F134" t="n">
-        <v>14.41</v>
+        <v>14.708</v>
       </c>
     </row>
     <row r="135">
@@ -6320,10 +6320,10 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.711</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>14.31</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="136">
@@ -6336,10 +6336,10 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.633</v>
+        <v>0.655</v>
       </c>
       <c r="F136" t="n">
-        <v>16.061</v>
+        <v>15.554</v>
       </c>
     </row>
     <row r="137">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.526</v>
+        <v>0.653</v>
       </c>
       <c r="F137" t="n">
-        <v>17.151</v>
+        <v>14.684</v>
       </c>
     </row>
     <row r="138">
@@ -6376,10 +6376,10 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.527</v>
+        <v>0.667</v>
       </c>
       <c r="F138" t="n">
-        <v>18.318</v>
+        <v>15.373</v>
       </c>
     </row>
     <row r="139">
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.499</v>
+        <v>0.638</v>
       </c>
       <c r="F139" t="n">
-        <v>18.758</v>
+        <v>15.932</v>
       </c>
     </row>
     <row r="140">
@@ -6416,10 +6416,10 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.398</v>
+        <v>0.59</v>
       </c>
       <c r="F140" t="n">
-        <v>19.332</v>
+        <v>15.945</v>
       </c>
     </row>
     <row r="141">
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.376</v>
+        <v>0.656</v>
       </c>
       <c r="F141" t="n">
-        <v>21.051</v>
+        <v>15.623</v>
       </c>
     </row>
     <row r="142">
@@ -6448,10 +6448,10 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.368</v>
+        <v>0.579</v>
       </c>
       <c r="F142" t="n">
-        <v>21.056</v>
+        <v>17.187</v>
       </c>
     </row>
     <row r="143">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.293</v>
+        <v>0.534</v>
       </c>
       <c r="F143" t="n">
-        <v>20.953</v>
+        <v>17.011</v>
       </c>
     </row>
     <row r="144">
@@ -6488,10 +6488,10 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.265</v>
+        <v>0.609</v>
       </c>
       <c r="F144" t="n">
-        <v>22.841</v>
+        <v>16.663</v>
       </c>
     </row>
     <row r="145">
@@ -6504,10 +6504,10 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.263</v>
+        <v>0.538</v>
       </c>
       <c r="F145" t="n">
-        <v>22.746</v>
+        <v>18.015</v>
       </c>
     </row>
     <row r="146">
@@ -7852,10 +7852,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.434</v>
+        <v>0.771</v>
       </c>
       <c r="F14" t="n">
-        <v>18.547</v>
+        <v>11.807</v>
       </c>
     </row>
     <row r="15">
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.1</v>
+        <v>0.198</v>
       </c>
       <c r="F15" t="n">
-        <v>31.422</v>
+        <v>26.819</v>
       </c>
     </row>
     <row r="16">
@@ -7884,10 +7884,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.153</v>
+        <v>0.415</v>
       </c>
       <c r="F16" t="n">
-        <v>22.839</v>
+        <v>18.976</v>
       </c>
     </row>
     <row r="17">
@@ -7908,10 +7908,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.221</v>
+        <v>0.696</v>
       </c>
       <c r="F17" t="n">
-        <v>21.77</v>
+        <v>13.587</v>
       </c>
     </row>
     <row r="18">
@@ -7924,10 +7924,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.174</v>
+        <v>0.199</v>
       </c>
       <c r="F18" t="n">
-        <v>32.457</v>
+        <v>26.816</v>
       </c>
     </row>
     <row r="19">
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.044</v>
+        <v>0.341</v>
       </c>
       <c r="F19" t="n">
-        <v>24.27</v>
+        <v>20.143</v>
       </c>
     </row>
     <row r="20">
@@ -7964,10 +7964,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.124</v>
+        <v>0.603</v>
       </c>
       <c r="F20" t="n">
-        <v>23.082</v>
+        <v>15.542</v>
       </c>
     </row>
     <row r="21">
@@ -7980,10 +7980,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.184</v>
+        <v>0.164</v>
       </c>
       <c r="F21" t="n">
-        <v>32.587</v>
+        <v>27.389</v>
       </c>
     </row>
     <row r="22">
@@ -7996,10 +7996,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.023</v>
+        <v>0.295</v>
       </c>
       <c r="F22" t="n">
-        <v>25.102</v>
+        <v>20.845</v>
       </c>
     </row>
     <row r="23">
@@ -8020,10 +8020,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.068</v>
+        <v>0.53</v>
       </c>
       <c r="F23" t="n">
-        <v>23.806</v>
+        <v>16.907</v>
       </c>
     </row>
     <row r="24">
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.179</v>
+        <v>0.131</v>
       </c>
       <c r="F24" t="n">
-        <v>32.518</v>
+        <v>27.921</v>
       </c>
     </row>
     <row r="25">
@@ -8052,10 +8052,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0.233</v>
       </c>
       <c r="F25" t="n">
-        <v>25.662</v>
+        <v>21.734</v>
       </c>
     </row>
     <row r="26">
@@ -9366,10 +9366,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.674</v>
+        <v>0.639</v>
       </c>
       <c r="F18" t="n">
-        <v>16.204</v>
+        <v>17.057</v>
       </c>
     </row>
     <row r="19">
@@ -9382,10 +9382,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.621</v>
+        <v>-0.912</v>
       </c>
       <c r="F19" t="n">
-        <v>22.315</v>
+        <v>24.236</v>
       </c>
     </row>
     <row r="20">
@@ -9398,10 +9398,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.868</v>
+        <v>0.834</v>
       </c>
       <c r="F20" t="n">
-        <v>10.417</v>
+        <v>11.707</v>
       </c>
     </row>
     <row r="21">
@@ -9414,10 +9414,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.791</v>
+        <v>0.759</v>
       </c>
       <c r="F21" t="n">
-        <v>12.861</v>
+        <v>13.817</v>
       </c>
     </row>
     <row r="22">
@@ -9438,10 +9438,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.665</v>
+        <v>0.676</v>
       </c>
       <c r="F22" t="n">
-        <v>16.427</v>
+        <v>16.164</v>
       </c>
     </row>
     <row r="23">
@@ -9454,10 +9454,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.541</v>
+        <v>-0.873</v>
       </c>
       <c r="F23" t="n">
-        <v>21.756</v>
+        <v>23.985</v>
       </c>
     </row>
     <row r="24">
@@ -9470,10 +9470,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.881</v>
+        <v>0.861</v>
       </c>
       <c r="F24" t="n">
-        <v>9.917</v>
+        <v>10.702</v>
       </c>
     </row>
     <row r="25">
@@ -9486,10 +9486,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F25" t="n">
-        <v>12.578</v>
+        <v>12.889</v>
       </c>
     </row>
     <row r="26">
@@ -9510,10 +9510,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.639</v>
+        <v>0.706</v>
       </c>
       <c r="F26" t="n">
-        <v>17.044</v>
+        <v>15.382</v>
       </c>
     </row>
     <row r="27">
@@ -9526,10 +9526,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.475</v>
+        <v>-0.832</v>
       </c>
       <c r="F27" t="n">
-        <v>21.286</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="28">
@@ -9542,10 +9542,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.889</v>
+        <v>0.882</v>
       </c>
       <c r="F28" t="n">
-        <v>9.566000000000001</v>
+        <v>9.879</v>
       </c>
     </row>
     <row r="29">
@@ -9558,10 +9558,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.793</v>
+        <v>0.787</v>
       </c>
       <c r="F29" t="n">
-        <v>12.813</v>
+        <v>12.989</v>
       </c>
     </row>
     <row r="30">
@@ -9582,10 +9582,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.621</v>
+        <v>0.738</v>
       </c>
       <c r="F30" t="n">
-        <v>17.473</v>
+        <v>14.512</v>
       </c>
     </row>
     <row r="31">
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.41</v>
+        <v>-0.698</v>
       </c>
       <c r="F31" t="n">
-        <v>20.809</v>
+        <v>22.836</v>
       </c>
     </row>
     <row r="32">
@@ -9614,10 +9614,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.877</v>
+        <v>0.906</v>
       </c>
       <c r="F32" t="n">
-        <v>10.057</v>
+        <v>8.782999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -9630,10 +9630,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.727</v>
+        <v>0.742</v>
       </c>
       <c r="F33" t="n">
-        <v>14.701</v>
+        <v>14.282</v>
       </c>
     </row>
     <row r="34">
@@ -11034,16 +11034,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4633333333333334</v>
+        <v>0.5006666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2810770949994562</v>
+        <v>0.3141915551591629</v>
       </c>
       <c r="F8" t="n">
-        <v>18.817</v>
+        <v>17.945</v>
       </c>
       <c r="G8" t="n">
-        <v>3.417973229854208</v>
+        <v>4.29928168418865</v>
       </c>
     </row>
     <row r="9">
@@ -11059,16 +11059,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4806666666666667</v>
+        <v>0.5103333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2685448441756672</v>
+        <v>0.3185440838146791</v>
       </c>
       <c r="F9" t="n">
-        <v>18.55066666666666</v>
+        <v>17.72966666666666</v>
       </c>
       <c r="G9" t="n">
-        <v>3.533772111120542</v>
+        <v>4.450882646547011</v>
       </c>
     </row>
     <row r="10">
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4283333333333334</v>
+        <v>0.502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2505919658196035</v>
+        <v>0.3056075915287446</v>
       </c>
       <c r="F10" t="n">
-        <v>19.62466666666667</v>
+        <v>17.966</v>
       </c>
       <c r="G10" t="n">
-        <v>3.268368757244711</v>
+        <v>4.223090929639095</v>
       </c>
     </row>
     <row r="11">
@@ -11109,16 +11109,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3576666666666666</v>
+        <v>0.492</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2441440831421752</v>
+        <v>0.2984979061903115</v>
       </c>
       <c r="F11" t="n">
-        <v>20.90933333333333</v>
+        <v>18.20966666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>3.125529128537012</v>
+        <v>4.170882080967206</v>
       </c>
     </row>
     <row r="12">
@@ -11638,16 +11638,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6355000000000001</v>
+        <v>0.64175</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1732214382421144</v>
+        <v>0.1338764978129719</v>
       </c>
       <c r="F32" t="n">
-        <v>16.154</v>
+        <v>16.1215</v>
       </c>
       <c r="G32" t="n">
-        <v>3.810905141826546</v>
+        <v>3.011394527457337</v>
       </c>
     </row>
     <row r="33">
@@ -11663,16 +11663,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.629</v>
+        <v>0.6647500000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1482115605027714</v>
+        <v>0.1817055768727715</v>
       </c>
       <c r="F33" t="n">
-        <v>16.3745</v>
+        <v>15.412</v>
       </c>
       <c r="G33" t="n">
-        <v>3.392440861680569</v>
+        <v>4.112733559730479</v>
       </c>
     </row>
     <row r="34">
@@ -11688,16 +11688,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.57525</v>
+        <v>0.6617500000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1108253129930162</v>
+        <v>0.1794962859411489</v>
       </c>
       <c r="F34" t="n">
-        <v>17.65175</v>
+        <v>15.484</v>
       </c>
       <c r="G34" t="n">
-        <v>2.542548901529067</v>
+        <v>4.160937875046922</v>
       </c>
     </row>
     <row r="35">
@@ -11713,16 +11713,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5137499999999999</v>
+        <v>0.6585000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06993985511375708</v>
+        <v>0.1570530695868969</v>
       </c>
       <c r="F35" t="n">
-        <v>18.95825</v>
+        <v>15.6415</v>
       </c>
       <c r="G35" t="n">
-        <v>1.653190526426602</v>
+        <v>3.723719511456254</v>
       </c>
     </row>
     <row r="36">
@@ -12326,16 +12326,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0505</v>
+        <v>0.1725</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1831406563273158</v>
+        <v>0.04879036790187177</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8085</v>
+        <v>23.9965</v>
       </c>
       <c r="G8" t="n">
-        <v>7.111372898393108</v>
+        <v>5.039550029516524</v>
       </c>
     </row>
     <row r="9">
@@ -12351,16 +12351,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.097</v>
+        <v>0.043</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1244507934888324</v>
+        <v>0.01272792206135785</v>
       </c>
       <c r="F9" t="n">
-        <v>27.679</v>
+        <v>25.7545</v>
       </c>
       <c r="G9" t="n">
-        <v>6.549223007349806</v>
+        <v>4.833074849410053</v>
       </c>
     </row>
     <row r="10">
@@ -12376,16 +12376,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.2</v>
+        <v>-0.0265</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06646803743153547</v>
+        <v>0.02333452377915607</v>
       </c>
       <c r="F10" t="n">
-        <v>28.8925</v>
+        <v>26.6345</v>
       </c>
       <c r="G10" t="n">
-        <v>6.021014241803449</v>
+        <v>4.531847360624582</v>
       </c>
     </row>
     <row r="11">
@@ -12401,16 +12401,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.2795</v>
+        <v>-0.074</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0007071067811865482</v>
+        <v>0.04949747468305832</v>
       </c>
       <c r="F11" t="n">
-        <v>29.767</v>
+        <v>27.2065</v>
       </c>
       <c r="G11" t="n">
-        <v>5.382496818392001</v>
+        <v>4.311230044894379</v>
       </c>
     </row>
     <row r="12">
@@ -12930,16 +12930,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.2093333333333334</v>
+        <v>-0.2243333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9209790080850558</v>
+        <v>1.112995208135836</v>
       </c>
       <c r="F32" t="n">
-        <v>24.34433333333333</v>
+        <v>23.82666666666666</v>
       </c>
       <c r="G32" t="n">
-        <v>7.583726810304637</v>
+        <v>9.237080725712712</v>
       </c>
     </row>
     <row r="33">
@@ -12955,16 +12955,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.2756666666666667</v>
+        <v>-0.2326666666666667</v>
       </c>
       <c r="E33" t="n">
-        <v>0.807773070443261</v>
+        <v>1.081806976005116</v>
       </c>
       <c r="F33" t="n">
-        <v>25.54233333333333</v>
+        <v>24.04166666666667</v>
       </c>
       <c r="G33" t="n">
-        <v>6.174069673508175</v>
+        <v>8.997124559176301</v>
       </c>
     </row>
     <row r="34">
@@ -12980,16 +12980,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.3676666666666668</v>
+        <v>-0.2603333333333334</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7461081244252292</v>
+        <v>1.039385555668989</v>
       </c>
       <c r="F34" t="n">
-        <v>26.78233333333333</v>
+        <v>24.58333333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>5.217549840043058</v>
+        <v>8.37396288105777</v>
       </c>
     </row>
     <row r="35">
@@ -13005,16 +13005,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.4536666666666667</v>
+        <v>-0.282</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7259685484463728</v>
+        <v>1.005497389355139</v>
       </c>
       <c r="F35" t="n">
-        <v>27.773</v>
+        <v>24.994</v>
       </c>
       <c r="G35" t="n">
-        <v>4.6803738098575</v>
+        <v>7.86536896782344</v>
       </c>
     </row>
     <row r="36">
@@ -13534,16 +13534,16 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.6696666666666666</v>
+        <v>0.6636666666666667</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03920884254008694</v>
+        <v>0.01767295485574876</v>
       </c>
       <c r="F56" t="n">
-        <v>14.927</v>
+        <v>15.08066666666667</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9833448021930047</v>
+        <v>0.4318904182004196</v>
       </c>
     </row>
     <row r="57">
@@ -13559,16 +13559,16 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5173333333333333</v>
+        <v>0.6526666666666667</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01588500340992515</v>
+        <v>0.01450287327853807</v>
       </c>
       <c r="F57" t="n">
-        <v>18.07566666666667</v>
+        <v>15.32966666666667</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8304554975032276</v>
+        <v>0.6251274536711166</v>
       </c>
     </row>
     <row r="58">
@@ -13584,16 +13584,16 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.3806666666666667</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01553490693030807</v>
+        <v>0.04164532786920205</v>
       </c>
       <c r="F58" t="n">
-        <v>20.47966666666667</v>
+        <v>16.25166666666667</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9939116325576093</v>
+        <v>0.8258676245823751</v>
       </c>
     </row>
     <row r="59">
@@ -13609,16 +13609,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.2736666666666667</v>
+        <v>0.5603333333333333</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01677299416721215</v>
+        <v>0.04219399641339193</v>
       </c>
       <c r="F59" t="n">
-        <v>22.18</v>
+        <v>17.22966666666666</v>
       </c>
       <c r="G59" t="n">
-        <v>1.063674292253038</v>
+        <v>0.7020237412889494</v>
       </c>
     </row>
     <row r="60">
@@ -14223,16 +14223,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1623333333333333</v>
+        <v>0.4613333333333334</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2671223190475355</v>
+        <v>0.2892962725880396</v>
       </c>
       <c r="F8" t="n">
-        <v>24.26933333333333</v>
+        <v>19.20066666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>6.555592752248521</v>
+        <v>7.508521314701938</v>
       </c>
     </row>
     <row r="9">
@@ -14248,16 +14248,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.03033333333333334</v>
+        <v>0.412</v>
       </c>
       <c r="E9" t="n">
-        <v>0.197854323514381</v>
+        <v>0.2559941405579432</v>
       </c>
       <c r="F9" t="n">
-        <v>26.16566666666667</v>
+        <v>20.182</v>
       </c>
       <c r="G9" t="n">
-        <v>5.59000503875742</v>
+        <v>6.614586230445559</v>
       </c>
     </row>
     <row r="10">
@@ -14273,16 +14273,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.02766666666666666</v>
+        <v>0.354</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1540530211756113</v>
+        <v>0.225368586985853</v>
       </c>
       <c r="F10" t="n">
-        <v>26.92366666666667</v>
+        <v>21.25866666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>5.007505200529835</v>
+        <v>5.934323241392681</v>
       </c>
     </row>
     <row r="11">
@@ -14298,16 +14298,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.06</v>
+        <v>0.298</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1237457069962429</v>
+        <v>0.2072896524190245</v>
       </c>
       <c r="F11" t="n">
-        <v>27.32866666666666</v>
+        <v>22.18733333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>4.588907204698449</v>
+        <v>5.520976574242399</v>
       </c>
     </row>
     <row r="12">
@@ -14910,16 +14910,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.428</v>
+        <v>0.33</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7038669381826843</v>
+        <v>0.8318858094714683</v>
       </c>
       <c r="F8" t="n">
-        <v>15.44925</v>
+        <v>16.70425</v>
       </c>
       <c r="G8" t="n">
-        <v>5.155280423992473</v>
+        <v>5.482104545701405</v>
       </c>
     </row>
     <row r="9">
@@ -14935,16 +14935,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.45125</v>
+        <v>0.3635</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6674730331631384</v>
+        <v>0.8278480134259749</v>
       </c>
       <c r="F9" t="n">
-        <v>15.1695</v>
+        <v>15.935</v>
       </c>
       <c r="G9" t="n">
-        <v>5.140295614067347</v>
+        <v>5.817139789736304</v>
       </c>
     </row>
     <row r="10">
@@ -14960,16 +14960,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4615</v>
+        <v>0.38575</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6327682566838089</v>
+        <v>0.815013445696859</v>
       </c>
       <c r="F10" t="n">
-        <v>15.17725</v>
+        <v>15.4925</v>
       </c>
       <c r="G10" t="n">
-        <v>5.095010197896238</v>
+        <v>5.929667247549955</v>
       </c>
     </row>
     <row r="11">
@@ -14985,16 +14985,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.45375</v>
+        <v>0.422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5853325977595986</v>
+        <v>0.7507578393419102</v>
       </c>
       <c r="F11" t="n">
-        <v>15.76</v>
+        <v>15.10325</v>
       </c>
       <c r="G11" t="n">
-        <v>4.548716302430829</v>
+        <v>5.795544574642374</v>
       </c>
     </row>
     <row r="12">
